--- a/Trading Account.xlsx
+++ b/Trading Account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BEC766-93DC-4EB8-A165-5B8DD4C5775B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A964F5-24AE-4564-BF35-595C73C228E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="4740" windowWidth="23775" windowHeight="15225" xr2:uid="{5AC812C1-C6FA-4E05-932F-D1EBD613AE9A}"/>
+    <workbookView xWindow="56055" yWindow="2850" windowWidth="28455" windowHeight="16710" xr2:uid="{5AC812C1-C6FA-4E05-932F-D1EBD613AE9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1012,10 +1012,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Main!$B$5:$B$16</c:f>
+              <c:f>Main!$B$5:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44760</c:v>
                 </c:pt>
@@ -1052,15 +1052,66 @@
                 <c:pt idx="11">
                   <c:v>44775</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44782</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44783</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44784</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44789</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44791</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44792</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44796</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44798</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$G$5:$G$16</c:f>
+              <c:f>Main!$G$5:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.123253471767649E-2</c:v>
                 </c:pt>
@@ -1096,6 +1147,57 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-9.6424394671509317E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.5180714166052045E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.7395944461267576E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.5531884075848663E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.5745568047203014E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.6568299087525604E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.4743800080937293E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.7850944089210801E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.7340804446536637E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.3110924264750135E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.2153098795610338E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.5184295461662778E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5960413950021799E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5402953454696666E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8976433881125594E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0766285842302796E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.971892798293065E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5916248616724653E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2185,13 +2287,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAE940E-6F97-4759-B7C4-CA0B0F24A13F}">
-  <dimension ref="B3:G33"/>
+  <dimension ref="B3:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2931,23 +3033,29 @@
         <v>44798</v>
       </c>
       <c r="C33" s="4">
-        <v>52990.3</v>
+        <v>55082</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="10"/>
-        <v>230.2300000000032</v>
+        <v>2321.9300000000003</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="11"/>
-        <v>2729.1600000000035</v>
+        <v>4820.8600000000006</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="12"/>
-        <v>4.3637167274419575E-3</v>
+        <v>4.4009228949089652E-2</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="13"/>
-        <v>5.4299604028082094E-2</v>
+        <v>9.5916248616724653E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <f>+B33+1</f>
+        <v>44799</v>
       </c>
     </row>
   </sheetData>

--- a/Trading Account.xlsx
+++ b/Trading Account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A964F5-24AE-4564-BF35-595C73C228E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8468316D-296F-4795-B178-40CFBAAB9263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56055" yWindow="2850" windowWidth="28455" windowHeight="16710" xr2:uid="{5AC812C1-C6FA-4E05-932F-D1EBD613AE9A}"/>
+    <workbookView xWindow="21885" yWindow="90" windowWidth="20310" windowHeight="17790" activeTab="1" xr2:uid="{5AC812C1-C6FA-4E05-932F-D1EBD613AE9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="299">
   <si>
     <t>Date</t>
   </si>
@@ -906,6 +906,51 @@
   </si>
   <si>
     <t>2022-08-22, 15:09:09</t>
+  </si>
+  <si>
+    <t>2022-08-25, 13:01:59</t>
+  </si>
+  <si>
+    <t>APE</t>
+  </si>
+  <si>
+    <t>2022-08-25, 13:02:07</t>
+  </si>
+  <si>
+    <t>Total APE</t>
+  </si>
+  <si>
+    <t>2022-08-25, 22:43:01</t>
+  </si>
+  <si>
+    <t>Total 700</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>7203.T</t>
+  </si>
+  <si>
+    <t>2022-08-25, 21:15:55</t>
+  </si>
+  <si>
+    <t>Total 7203.T</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>2022-08-26, 09:52:06</t>
+  </si>
+  <si>
+    <t>2022-08-26, 11:15:47</t>
+  </si>
+  <si>
+    <t>Total EA</t>
+  </si>
+  <si>
+    <t>2022-08-26, 10:11:01</t>
   </si>
 </sst>
 </file>
@@ -943,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -958,6 +1003,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1197,7 +1245,7 @@
                   <c:v>4.971892798293065E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.5916248616724653E-2</c:v>
+                  <c:v>8.8492819701264214E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2287,17 +2335,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAE940E-6F97-4759-B7C4-CA0B0F24A13F}">
-  <dimension ref="B3:G34"/>
+  <dimension ref="B3:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="3" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -2343,7 +2392,7 @@
         <f t="shared" ref="D5:D17" si="0">C5-C4</f>
         <v>564.55999999999767</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <f>+C5-C4</f>
         <v>564.55999999999767</v>
       </c>
@@ -2368,7 +2417,7 @@
         <f t="shared" si="0"/>
         <v>1726.5400000000009</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="8">
         <f t="shared" ref="E6:E17" si="3">C6-$C$4</f>
         <v>2291.0999999999985</v>
       </c>
@@ -2393,7 +2442,7 @@
         <f t="shared" si="0"/>
         <v>692.88999999999942</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="8">
         <f t="shared" si="3"/>
         <v>2983.989999999998</v>
       </c>
@@ -2419,7 +2468,7 @@
         <f t="shared" si="0"/>
         <v>126.76000000000204</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="8">
         <f t="shared" si="3"/>
         <v>3110.75</v>
       </c>
@@ -2443,7 +2492,7 @@
         <f t="shared" si="0"/>
         <v>624.55000000000291</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="8">
         <f t="shared" si="3"/>
         <v>3735.3000000000029</v>
       </c>
@@ -2467,7 +2516,7 @@
         <f t="shared" si="0"/>
         <v>-366.35000000000582</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="8">
         <f t="shared" si="3"/>
         <v>3368.9499999999971</v>
       </c>
@@ -2492,7 +2541,7 @@
         <f t="shared" si="0"/>
         <v>-1316.0699999999997</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="8">
         <f t="shared" si="3"/>
         <v>2052.8799999999974</v>
       </c>
@@ -2517,7 +2566,7 @@
         <f t="shared" si="0"/>
         <v>1126.3400000000038</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="8">
         <f t="shared" si="3"/>
         <v>3179.2200000000012</v>
       </c>
@@ -2542,7 +2591,7 @@
         <f t="shared" si="0"/>
         <v>-3041.5800000000017</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="8">
         <f t="shared" si="3"/>
         <v>137.63999999999942</v>
       </c>
@@ -2567,7 +2616,7 @@
         <f t="shared" si="0"/>
         <v>-669.61000000000058</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="8">
         <f t="shared" si="3"/>
         <v>-531.97000000000116</v>
       </c>
@@ -2591,7 +2640,7 @@
         <f t="shared" si="0"/>
         <v>560.24000000000524</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="8">
         <f t="shared" si="3"/>
         <v>28.270000000004075</v>
       </c>
@@ -2616,7 +2665,7 @@
         <f t="shared" si="0"/>
         <v>-512.91000000000349</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="8">
         <f t="shared" si="3"/>
         <v>-484.63999999999942</v>
       </c>
@@ -2641,7 +2690,7 @@
         <f t="shared" si="0"/>
         <v>477.01000000000204</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="8">
         <f t="shared" si="3"/>
         <v>-7.6299999999973807</v>
       </c>
@@ -2666,7 +2715,7 @@
         <f t="shared" ref="D18" si="5">C18-C17</f>
         <v>-866.70999999999913</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="8">
         <f t="shared" ref="E18" si="6">C18-$C$4</f>
         <v>-874.33999999999651</v>
       </c>
@@ -2688,19 +2737,19 @@
         <v>45962.21</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:D33" si="10">C19-C18</f>
+        <f t="shared" ref="D19:D34" si="10">C19-C18</f>
         <v>-3424.5900000000038</v>
       </c>
-      <c r="E19" s="4">
-        <f t="shared" ref="E19:E33" si="11">C19-$C$4</f>
+      <c r="E19" s="8">
+        <f t="shared" ref="E19:E34" si="11">C19-$C$4</f>
         <v>-4298.93</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" ref="F19:F33" si="12">+C19/C18-1</f>
+        <f t="shared" ref="F19:F34" si="12">+C19/C18-1</f>
         <v>-6.9342212898993338E-2</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" ref="G19:G33" si="13">C19/$C$4-1</f>
+        <f t="shared" ref="G19:G34" si="13">C19/$C$4-1</f>
         <v>-8.5531884075848663E-2</v>
       </c>
     </row>
@@ -2715,7 +2764,7 @@
         <f t="shared" si="10"/>
         <v>-10.739999999997963</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="8">
         <f t="shared" si="11"/>
         <v>-4309.6699999999983</v>
       </c>
@@ -2739,7 +2788,7 @@
         <f t="shared" si="10"/>
         <v>461.26000000000204</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="8">
         <f t="shared" si="11"/>
         <v>-3848.4099999999962</v>
       </c>
@@ -2764,7 +2813,7 @@
         <f t="shared" si="10"/>
         <v>-410.91000000000349</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="8">
         <f t="shared" si="11"/>
         <v>-4259.32</v>
       </c>
@@ -2789,7 +2838,7 @@
         <f t="shared" si="10"/>
         <v>-658.77999999999884</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="8">
         <f t="shared" si="11"/>
         <v>-4918.0999999999985</v>
       </c>
@@ -2814,7 +2863,7 @@
         <f t="shared" si="10"/>
         <v>3543.9199999999983</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="8">
         <f t="shared" si="11"/>
         <v>-1374.1800000000003</v>
       </c>
@@ -2839,7 +2888,7 @@
         <f t="shared" si="10"/>
         <v>715.20999999999913</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="8">
         <f t="shared" si="11"/>
         <v>-658.97000000000116</v>
       </c>
@@ -2864,7 +2913,7 @@
         <f t="shared" si="10"/>
         <v>-454.47000000000116</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="8">
         <f t="shared" si="11"/>
         <v>-1113.4400000000023</v>
       </c>
@@ -2889,7 +2938,7 @@
         <f t="shared" si="10"/>
         <v>350.26000000000204</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="8">
         <f t="shared" si="11"/>
         <v>-763.18000000000029</v>
       </c>
@@ -2914,7 +2963,7 @@
         <f t="shared" si="10"/>
         <v>2067.9800000000032</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="8">
         <f t="shared" si="11"/>
         <v>1304.8000000000029</v>
       </c>
@@ -2939,7 +2988,7 @@
         <f t="shared" si="10"/>
         <v>-530.63000000000466</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="8">
         <f t="shared" si="11"/>
         <v>774.16999999999825</v>
       </c>
@@ -2964,7 +3013,7 @@
         <f t="shared" si="10"/>
         <v>1184.8300000000017</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="8">
         <f t="shared" si="11"/>
         <v>1959</v>
       </c>
@@ -2989,7 +3038,7 @@
         <f t="shared" si="10"/>
         <v>89.959999999999127</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="8">
         <f t="shared" si="11"/>
         <v>2048.9599999999991</v>
       </c>
@@ -3014,7 +3063,7 @@
         <f t="shared" si="10"/>
         <v>449.97000000000116</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="8">
         <f t="shared" si="11"/>
         <v>2498.9300000000003</v>
       </c>
@@ -3033,29 +3082,72 @@
         <v>44798</v>
       </c>
       <c r="C33" s="4">
-        <v>55082</v>
+        <v>54708.89</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="10"/>
-        <v>2321.9300000000003</v>
-      </c>
-      <c r="E33" s="2">
+        <v>1948.8199999999997</v>
+      </c>
+      <c r="E33" s="8">
         <f t="shared" si="11"/>
-        <v>4820.8600000000006</v>
+        <v>4447.75</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="12"/>
-        <v>4.4009228949089652E-2</v>
+        <v>3.693740360844866E-2</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="13"/>
-        <v>9.5916248616724653E-2</v>
+        <v>8.8492819701264214E-2</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <f>+B33+1</f>
         <v>44799</v>
+      </c>
+      <c r="C34" s="4">
+        <v>55724.160000000003</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="10"/>
+        <v>1015.2700000000041</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="11"/>
+        <v>5463.0200000000041</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="12"/>
+        <v>1.855767865149538E-2</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="13"/>
+        <v>0.10869271966374039</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>44802</v>
+      </c>
+      <c r="C35" s="4">
+        <v>56467.85</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" ref="D35" si="14">C35-C34</f>
+        <v>743.68999999999505</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" ref="E35" si="15">C35-$C$4</f>
+        <v>6206.7099999999991</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" ref="F35" si="16">+C35/C34-1</f>
+        <v>1.3345916744191388E-2</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" ref="G35" si="17">C35/$C$4-1</f>
+        <v>0.12348924039526366</v>
       </c>
     </row>
   </sheetData>
@@ -3068,13 +3160,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038FFE9E-7C90-4B6C-9246-D1FB4481747B}">
-  <dimension ref="B2:P318"/>
+  <dimension ref="B2:P341"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C291" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B331" sqref="B331"/>
+      <selection pane="bottomRight" activeCell="F327" sqref="F327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3082,10 +3174,10 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="5" customWidth="1"/>
-    <col min="8" max="9" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="5" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -12663,6 +12755,591 @@
         <v>28</v>
       </c>
     </row>
+    <row r="320" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B320" t="s">
+        <v>16</v>
+      </c>
+      <c r="C320" t="s">
+        <v>284</v>
+      </c>
+      <c r="D320">
+        <v>100</v>
+      </c>
+      <c r="E320" s="5">
+        <v>9.3981999999999992</v>
+      </c>
+      <c r="F320" s="5">
+        <v>9.57</v>
+      </c>
+      <c r="G320" s="5">
+        <v>-939.82</v>
+      </c>
+      <c r="H320" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I320" s="5">
+        <v>1215</v>
+      </c>
+      <c r="J320" s="5">
+        <v>274.18</v>
+      </c>
+      <c r="K320" s="5">
+        <v>17.18</v>
+      </c>
+      <c r="L320" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="321" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B321" t="s">
+        <v>27</v>
+      </c>
+      <c r="C321">
+        <v>100</v>
+      </c>
+      <c r="D321" t="s">
+        <v>28</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F321" s="5">
+        <v>-939.82</v>
+      </c>
+      <c r="G321" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H321" s="5">
+        <v>1215</v>
+      </c>
+      <c r="I321" s="5">
+        <v>274.18</v>
+      </c>
+      <c r="J321" s="5">
+        <v>17.18</v>
+      </c>
+      <c r="K321" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="322" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
+        <v>285</v>
+      </c>
+      <c r="C322" t="s">
+        <v>286</v>
+      </c>
+      <c r="D322">
+        <v>100</v>
+      </c>
+      <c r="E322" s="5">
+        <v>6.6458000000000004</v>
+      </c>
+      <c r="F322" s="5">
+        <v>6.83</v>
+      </c>
+      <c r="G322" s="5">
+        <v>-664.58</v>
+      </c>
+      <c r="H322" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I322" s="5">
+        <v>696.94</v>
+      </c>
+      <c r="J322" s="5">
+        <v>31.36</v>
+      </c>
+      <c r="K322" s="5">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="L322" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="323" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
+        <v>287</v>
+      </c>
+      <c r="C323">
+        <v>100</v>
+      </c>
+      <c r="D323" t="s">
+        <v>28</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F323" s="5">
+        <v>-664.58</v>
+      </c>
+      <c r="G323" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H323" s="5">
+        <v>696.94</v>
+      </c>
+      <c r="I323" s="5">
+        <v>31.36</v>
+      </c>
+      <c r="J323" s="5">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="K323" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="324" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B324" t="s">
+        <v>61</v>
+      </c>
+      <c r="C324" s="5">
+        <v>-1604.4</v>
+      </c>
+      <c r="D324">
+        <v>-2</v>
+      </c>
+      <c r="E324" s="5">
+        <v>1911.94</v>
+      </c>
+      <c r="F324" s="5">
+        <v>305.54000000000002</v>
+      </c>
+      <c r="G324" s="5">
+        <v>35.6</v>
+      </c>
+      <c r="H324" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="326" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B326">
+        <v>700</v>
+      </c>
+      <c r="C326" t="s">
+        <v>288</v>
+      </c>
+      <c r="D326">
+        <v>100</v>
+      </c>
+      <c r="E326" s="5">
+        <v>324.39999999999998</v>
+      </c>
+      <c r="F326" s="5">
+        <v>324.2</v>
+      </c>
+      <c r="G326" s="5">
+        <v>-32440</v>
+      </c>
+      <c r="H326" s="5">
+        <v>-69.88</v>
+      </c>
+      <c r="I326" s="5">
+        <v>32509.88</v>
+      </c>
+      <c r="J326" s="5">
+        <v>0</v>
+      </c>
+      <c r="K326" s="5">
+        <v>-20</v>
+      </c>
+      <c r="L326" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="327" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B327" t="s">
+        <v>289</v>
+      </c>
+      <c r="C327">
+        <v>100</v>
+      </c>
+      <c r="D327" t="s">
+        <v>28</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F327" s="5">
+        <v>-32440</v>
+      </c>
+      <c r="G327" s="5">
+        <v>-69.88</v>
+      </c>
+      <c r="H327" s="5">
+        <v>32509.88</v>
+      </c>
+      <c r="I327" s="5">
+        <v>0</v>
+      </c>
+      <c r="J327" s="5">
+        <v>-20</v>
+      </c>
+      <c r="K327" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="328" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B328" t="s">
+        <v>61</v>
+      </c>
+      <c r="C328" s="5">
+        <v>-32440</v>
+      </c>
+      <c r="D328">
+        <v>-69.88</v>
+      </c>
+      <c r="E328" s="5">
+        <v>32509.88</v>
+      </c>
+      <c r="F328" s="5">
+        <v>0</v>
+      </c>
+      <c r="G328" s="5">
+        <v>-20</v>
+      </c>
+      <c r="H328" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="329" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B329" t="s">
+        <v>65</v>
+      </c>
+      <c r="C329" s="5">
+        <v>-4134.1499999999996</v>
+      </c>
+      <c r="D329">
+        <v>-8.91</v>
+      </c>
+      <c r="E329" s="5">
+        <v>4143.0600000000004</v>
+      </c>
+      <c r="F329" s="5">
+        <v>0</v>
+      </c>
+      <c r="G329" s="5">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="H329" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="330" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B330" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="331" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B331" t="s">
+        <v>291</v>
+      </c>
+      <c r="C331" t="s">
+        <v>292</v>
+      </c>
+      <c r="D331">
+        <v>100</v>
+      </c>
+      <c r="E331" s="5">
+        <v>2117</v>
+      </c>
+      <c r="F331" s="5">
+        <v>2108</v>
+      </c>
+      <c r="G331" s="5">
+        <v>-211700</v>
+      </c>
+      <c r="H331" s="5">
+        <v>-169.36</v>
+      </c>
+      <c r="I331" s="5">
+        <v>211869.36</v>
+      </c>
+      <c r="J331" s="5">
+        <v>0</v>
+      </c>
+      <c r="K331" s="5">
+        <v>-900</v>
+      </c>
+      <c r="L331" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B332" t="s">
+        <v>293</v>
+      </c>
+      <c r="C332">
+        <v>100</v>
+      </c>
+      <c r="D332" t="s">
+        <v>28</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F332" s="5">
+        <v>-211700</v>
+      </c>
+      <c r="G332" s="5">
+        <v>-169.36</v>
+      </c>
+      <c r="H332" s="5">
+        <v>211869.36</v>
+      </c>
+      <c r="I332" s="5">
+        <v>0</v>
+      </c>
+      <c r="J332" s="5">
+        <v>-900</v>
+      </c>
+      <c r="K332" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="333" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B333" t="s">
+        <v>61</v>
+      </c>
+      <c r="C333" s="7">
+        <v>-211700</v>
+      </c>
+      <c r="D333">
+        <v>-169.36</v>
+      </c>
+      <c r="E333" s="5">
+        <v>211869.36</v>
+      </c>
+      <c r="F333" s="5">
+        <v>0</v>
+      </c>
+      <c r="G333" s="5">
+        <v>-900</v>
+      </c>
+      <c r="H333" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="334" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B334" t="s">
+        <v>65</v>
+      </c>
+      <c r="C334" s="5">
+        <v>-1539.21</v>
+      </c>
+      <c r="D334">
+        <v>-1.23</v>
+      </c>
+      <c r="E334" s="5">
+        <v>1540.44</v>
+      </c>
+      <c r="F334" s="5">
+        <v>0</v>
+      </c>
+      <c r="G334" s="5">
+        <v>-6.54</v>
+      </c>
+      <c r="H334" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="335" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B335" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="336" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B336" t="s">
+        <v>294</v>
+      </c>
+      <c r="C336" t="s">
+        <v>295</v>
+      </c>
+      <c r="D336">
+        <v>10</v>
+      </c>
+      <c r="E336" s="5">
+        <v>133.26</v>
+      </c>
+      <c r="F336" s="5">
+        <v>132.16999999999999</v>
+      </c>
+      <c r="G336" s="5">
+        <v>-1332.6</v>
+      </c>
+      <c r="H336" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I336" s="5">
+        <v>1333.6</v>
+      </c>
+      <c r="J336" s="5">
+        <v>0</v>
+      </c>
+      <c r="K336" s="5">
+        <v>-10.9</v>
+      </c>
+      <c r="L336" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="337" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B337" t="s">
+        <v>294</v>
+      </c>
+      <c r="C337" t="s">
+        <v>296</v>
+      </c>
+      <c r="D337">
+        <v>-10</v>
+      </c>
+      <c r="E337" s="5">
+        <v>134.83420000000001</v>
+      </c>
+      <c r="F337" s="5">
+        <v>132.16999999999999</v>
+      </c>
+      <c r="G337" s="5">
+        <v>1348.34</v>
+      </c>
+      <c r="H337" s="5">
+        <v>-1.03</v>
+      </c>
+      <c r="I337" s="5">
+        <v>-1333.6</v>
+      </c>
+      <c r="J337" s="5">
+        <v>13.71</v>
+      </c>
+      <c r="K337" s="5">
+        <v>26.64</v>
+      </c>
+      <c r="L337" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="338" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B338" t="s">
+        <v>297</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338" t="s">
+        <v>28</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F338" s="5">
+        <v>15.74</v>
+      </c>
+      <c r="G338" s="5">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="H338" s="5">
+        <v>0</v>
+      </c>
+      <c r="I338" s="5">
+        <v>13.71</v>
+      </c>
+      <c r="J338" s="5">
+        <v>15.74</v>
+      </c>
+      <c r="K338" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="339" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B339" t="s">
+        <v>38</v>
+      </c>
+      <c r="C339" t="s">
+        <v>298</v>
+      </c>
+      <c r="D339">
+        <v>100</v>
+      </c>
+      <c r="E339" s="5">
+        <v>31.445</v>
+      </c>
+      <c r="F339" s="5">
+        <v>30.94</v>
+      </c>
+      <c r="G339" s="5">
+        <v>-3144.5</v>
+      </c>
+      <c r="H339" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I339" s="5">
+        <v>3145.5</v>
+      </c>
+      <c r="J339" s="5">
+        <v>0</v>
+      </c>
+      <c r="K339" s="5">
+        <v>-50.5</v>
+      </c>
+      <c r="L339" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="340" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B340" t="s">
+        <v>42</v>
+      </c>
+      <c r="C340">
+        <v>100</v>
+      </c>
+      <c r="D340" t="s">
+        <v>28</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F340" s="5">
+        <v>-3144.5</v>
+      </c>
+      <c r="G340" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H340" s="5">
+        <v>3145.5</v>
+      </c>
+      <c r="I340" s="5">
+        <v>0</v>
+      </c>
+      <c r="J340" s="5">
+        <v>-50.5</v>
+      </c>
+      <c r="K340" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="341" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B341" t="s">
+        <v>61</v>
+      </c>
+      <c r="C341" s="5">
+        <v>-3128.76</v>
+      </c>
+      <c r="D341">
+        <v>-3.03</v>
+      </c>
+      <c r="E341" s="5">
+        <v>3145.5</v>
+      </c>
+      <c r="F341" s="5">
+        <v>13.71</v>
+      </c>
+      <c r="G341" s="5">
+        <v>-34.76</v>
+      </c>
+      <c r="H341" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Trading Account.xlsx
+++ b/Trading Account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671B423C-13F0-4344-BD79-6329843EA3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049B1983-5A73-4EED-99EB-6056A6EC2BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55050" yWindow="2115" windowWidth="22155" windowHeight="18195" activeTab="2" xr2:uid="{5AC812C1-C6FA-4E05-932F-D1EBD613AE9A}"/>
+    <workbookView xWindow="5295" yWindow="1665" windowWidth="24495" windowHeight="17940" xr2:uid="{5AC812C1-C6FA-4E05-932F-D1EBD613AE9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="316">
   <si>
     <t>Date</t>
   </si>
@@ -952,6 +952,57 @@
   </si>
   <si>
     <t>2022-08-26, 10:11:01</t>
+  </si>
+  <si>
+    <t>4502.T</t>
+  </si>
+  <si>
+    <t>2022-08-28, 23:44:35</t>
+  </si>
+  <si>
+    <t>Total 4502.T</t>
+  </si>
+  <si>
+    <t>2022-08-29, 09:44:44</t>
+  </si>
+  <si>
+    <t>2022-08-29, 09:44:15</t>
+  </si>
+  <si>
+    <t>2022-08-29, 10:12:26</t>
+  </si>
+  <si>
+    <t>2022-08-29, 09:47:03</t>
+  </si>
+  <si>
+    <t>2022-08-30, 23:32:31</t>
+  </si>
+  <si>
+    <t>7267.T</t>
+  </si>
+  <si>
+    <t>2022-08-31, 00:15:51</t>
+  </si>
+  <si>
+    <t>Total 7267.T</t>
+  </si>
+  <si>
+    <t>OKTA</t>
+  </si>
+  <si>
+    <t>2022-09-01, 14:17:42</t>
+  </si>
+  <si>
+    <t>Total OKTA</t>
+  </si>
+  <si>
+    <t>2022-09-01, 14:18:32</t>
+  </si>
+  <si>
+    <t>2022-09-02, 11:18:15</t>
+  </si>
+  <si>
+    <t>2022-09-02, 10:10:28</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1121,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Main!$B$5:$B$33</c:f>
+              <c:f>Main!$B$5:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44760</c:v>
                 </c:pt>
@@ -1161,15 +1212,39 @@
                 <c:pt idx="28">
                   <c:v>44798</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>44799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44803</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44810</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$G$5:$G$33</c:f>
+              <c:f>Main!$G$5:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.123253471767649E-2</c:v>
                 </c:pt>
@@ -1256,6 +1331,30 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>8.8492819701264214E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.10869271966374039</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1250516800852508</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0509427362769745E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.4565984774718643E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3216090999925738E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.0229378004557761E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.9336640593508312E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.5492119756933374E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2345,13 +2444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAE940E-6F97-4759-B7C4-CA0B0F24A13F}">
-  <dimension ref="B3:G35"/>
+  <dimension ref="B3:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3141,23 +3240,246 @@
         <v>44802</v>
       </c>
       <c r="C35" s="4">
-        <v>56467.85</v>
+        <v>56546.38</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" ref="D35" si="14">C35-C34</f>
-        <v>743.68999999999505</v>
+        <f t="shared" ref="D35:D44" si="14">C35-C34</f>
+        <v>822.21999999999389</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" ref="E35" si="15">C35-$C$4</f>
-        <v>6206.7099999999991</v>
+        <f t="shared" ref="E35:E44" si="15">C35-$C$4</f>
+        <v>6285.239999999998</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" ref="F35" si="16">+C35/C34-1</f>
-        <v>1.3345916744191388E-2</v>
+        <f t="shared" ref="F35:F44" si="16">+C35/C34-1</f>
+        <v>1.4755179799928575E-2</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" ref="G35" si="17">C35/$C$4-1</f>
-        <v>0.12348924039526366</v>
+        <f t="shared" ref="G35:G44" si="17">C35/$C$4-1</f>
+        <v>0.1250516800852508</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <f>+B35+1</f>
+        <v>44803</v>
+      </c>
+      <c r="C36" s="4">
+        <v>52297.19</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="14"/>
+        <v>-4249.1899999999951</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="15"/>
+        <v>2036.0500000000029</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="16"/>
+        <v>-7.5145217076672211E-2</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="17"/>
+        <v>4.0509427362769745E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <f>+B36+1</f>
+        <v>44804</v>
+      </c>
+      <c r="C37" s="4">
+        <v>53506.3</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="14"/>
+        <v>1209.1100000000006</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="15"/>
+        <v>3245.1600000000035</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="16"/>
+        <v>2.3119980251329109E-2</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="17"/>
+        <v>6.4565984774718643E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <f>+B37+1</f>
+        <v>44805</v>
+      </c>
+      <c r="C38" s="4">
+        <v>52433.23</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="14"/>
+        <v>-1073.0699999999997</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="15"/>
+        <v>2172.0900000000038</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="16"/>
+        <v>-2.0055021558209041E-2</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="17"/>
+        <v>4.3216090999925738E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <f>+B38+1</f>
+        <v>44806</v>
+      </c>
+      <c r="C39" s="4">
+        <v>54293.56</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="14"/>
+        <v>1860.3299999999945</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="15"/>
+        <v>4032.4199999999983</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="16"/>
+        <v>3.5479980920496201E-2</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="17"/>
+        <v>8.0229378004557761E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>44809</v>
+      </c>
+      <c r="C40" s="4">
+        <v>54248.69</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="14"/>
+        <v>-44.869999999995343</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="15"/>
+        <v>3987.5500000000029</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="16"/>
+        <v>-8.2643319023467665E-4</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="17"/>
+        <v>7.9336640593508312E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>44810</v>
+      </c>
+      <c r="C41" s="4">
+        <v>54055.46</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="14"/>
+        <v>-193.2300000000032</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="15"/>
+        <v>3794.3199999999997</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="16"/>
+        <v>-3.5619293295378052E-3</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="17"/>
+        <v>7.5492119756933374E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <f>+B41+1</f>
+        <v>44811</v>
+      </c>
+      <c r="C42" s="4">
+        <v>54531.82</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="14"/>
+        <v>476.36000000000058</v>
+      </c>
+      <c r="E42" s="8">
+        <f t="shared" si="15"/>
+        <v>4270.68</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="16"/>
+        <v>8.8124307886752185E-3</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="17"/>
+        <v>8.4969819626057097E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <f>+B42+1</f>
+        <v>44812</v>
+      </c>
+      <c r="C43" s="4">
+        <v>54934.89</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="14"/>
+        <v>403.06999999999971</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" si="15"/>
+        <v>4673.75</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="16"/>
+        <v>7.3914642863561753E-3</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="17"/>
+        <v>9.2989335299597187E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <f>+B43+1</f>
+        <v>44813</v>
+      </c>
+      <c r="C44" s="4">
+        <v>55153</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="14"/>
+        <v>218.11000000000058</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" si="15"/>
+        <v>4891.8600000000006</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="16"/>
+        <v>3.9703365201968488E-3</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="17"/>
+        <v>9.7328870773722986E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3170,13 +3492,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038FFE9E-7C90-4B6C-9246-D1FB4481747B}">
-  <dimension ref="B2:P338"/>
+  <dimension ref="B2:P375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C342" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomRight" activeCell="B377" sqref="B376:B377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13202,7 +13524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
         <v>42</v>
       </c>
@@ -13234,7 +13556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="338" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>61</v>
       </c>
@@ -13254,6 +13576,960 @@
         <v>-34.76</v>
       </c>
       <c r="H338" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B340" t="s">
+        <v>299</v>
+      </c>
+      <c r="C340" t="s">
+        <v>300</v>
+      </c>
+      <c r="D340">
+        <v>-100</v>
+      </c>
+      <c r="E340" s="5">
+        <v>3816</v>
+      </c>
+      <c r="F340" s="5">
+        <v>3821</v>
+      </c>
+      <c r="G340" s="5">
+        <v>381600</v>
+      </c>
+      <c r="H340" s="5">
+        <v>-305.27999999999997</v>
+      </c>
+      <c r="I340" s="5">
+        <v>-381294.72</v>
+      </c>
+      <c r="J340" s="5">
+        <v>0</v>
+      </c>
+      <c r="K340" s="5">
+        <v>-500</v>
+      </c>
+      <c r="L340" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="341" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B341" t="s">
+        <v>301</v>
+      </c>
+      <c r="C341">
+        <v>-100</v>
+      </c>
+      <c r="D341" t="s">
+        <v>28</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F341" s="5">
+        <v>381600</v>
+      </c>
+      <c r="G341" s="5">
+        <v>-305.27999999999997</v>
+      </c>
+      <c r="H341" s="5">
+        <v>-381294.72</v>
+      </c>
+      <c r="I341" s="5">
+        <v>0</v>
+      </c>
+      <c r="J341" s="5">
+        <v>-500</v>
+      </c>
+      <c r="K341" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="342" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B342" t="s">
+        <v>61</v>
+      </c>
+      <c r="C342" s="7">
+        <v>381600</v>
+      </c>
+      <c r="D342">
+        <v>-305.27999999999997</v>
+      </c>
+      <c r="E342" s="5">
+        <v>-381294.72</v>
+      </c>
+      <c r="F342" s="5">
+        <v>0</v>
+      </c>
+      <c r="G342" s="5">
+        <v>-500</v>
+      </c>
+      <c r="H342" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="343" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B343" t="s">
+        <v>65</v>
+      </c>
+      <c r="C343" s="5">
+        <v>2750.99</v>
+      </c>
+      <c r="D343">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="E343" s="5">
+        <v>-2748.79</v>
+      </c>
+      <c r="F343" s="5">
+        <v>0</v>
+      </c>
+      <c r="G343" s="5">
+        <v>-3.6</v>
+      </c>
+      <c r="H343" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="344" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B344" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="345" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B345" t="s">
+        <v>16</v>
+      </c>
+      <c r="C345" t="s">
+        <v>302</v>
+      </c>
+      <c r="D345">
+        <v>200</v>
+      </c>
+      <c r="E345" s="5">
+        <v>9.0879999999999992</v>
+      </c>
+      <c r="F345" s="5">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="G345" s="5">
+        <v>-1817.6</v>
+      </c>
+      <c r="H345" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I345" s="5">
+        <v>2473.4699999999998</v>
+      </c>
+      <c r="J345" s="5">
+        <v>654.87</v>
+      </c>
+      <c r="K345" s="5">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="L345" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="346" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B346" t="s">
+        <v>27</v>
+      </c>
+      <c r="C346">
+        <v>200</v>
+      </c>
+      <c r="D346" t="s">
+        <v>28</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F346" s="5">
+        <v>-1817.6</v>
+      </c>
+      <c r="G346" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H346" s="5">
+        <v>2473.4699999999998</v>
+      </c>
+      <c r="I346" s="5">
+        <v>654.87</v>
+      </c>
+      <c r="J346" s="5">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="K346" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="347" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B347" t="s">
+        <v>285</v>
+      </c>
+      <c r="C347" t="s">
+        <v>303</v>
+      </c>
+      <c r="D347">
+        <v>200</v>
+      </c>
+      <c r="E347" s="5">
+        <v>5.915</v>
+      </c>
+      <c r="F347" s="5">
+        <v>6.06</v>
+      </c>
+      <c r="G347" s="5">
+        <v>-1183</v>
+      </c>
+      <c r="H347" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I347" s="5">
+        <v>1418.82</v>
+      </c>
+      <c r="J347" s="5">
+        <v>234.82</v>
+      </c>
+      <c r="K347" s="5">
+        <v>29</v>
+      </c>
+      <c r="L347" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="348" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
+        <v>287</v>
+      </c>
+      <c r="C348">
+        <v>200</v>
+      </c>
+      <c r="D348" t="s">
+        <v>28</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F348" s="5">
+        <v>-1183</v>
+      </c>
+      <c r="G348" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H348" s="5">
+        <v>1418.82</v>
+      </c>
+      <c r="I348" s="5">
+        <v>234.82</v>
+      </c>
+      <c r="J348" s="5">
+        <v>29</v>
+      </c>
+      <c r="K348" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="349" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B349" t="s">
+        <v>38</v>
+      </c>
+      <c r="C349" t="s">
+        <v>304</v>
+      </c>
+      <c r="D349">
+        <v>-100</v>
+      </c>
+      <c r="E349" s="5">
+        <v>31.645</v>
+      </c>
+      <c r="F349" s="5">
+        <v>31.55</v>
+      </c>
+      <c r="G349" s="5">
+        <v>3164.5</v>
+      </c>
+      <c r="H349" s="5">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="I349" s="5">
+        <v>-3145.5</v>
+      </c>
+      <c r="J349" s="5">
+        <v>17.91</v>
+      </c>
+      <c r="K349" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="L349" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="350" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B350" t="s">
+        <v>42</v>
+      </c>
+      <c r="C350">
+        <v>-100</v>
+      </c>
+      <c r="D350" t="s">
+        <v>28</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F350" s="5">
+        <v>3164.5</v>
+      </c>
+      <c r="G350" s="5">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="H350" s="5">
+        <v>-3145.5</v>
+      </c>
+      <c r="I350" s="5">
+        <v>17.91</v>
+      </c>
+      <c r="J350" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="K350" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="351" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B351" t="s">
+        <v>68</v>
+      </c>
+      <c r="C351" t="s">
+        <v>305</v>
+      </c>
+      <c r="D351">
+        <v>-20</v>
+      </c>
+      <c r="E351" s="5">
+        <v>403.01400000000001</v>
+      </c>
+      <c r="F351" s="5">
+        <v>402.63</v>
+      </c>
+      <c r="G351" s="5">
+        <v>8060.28</v>
+      </c>
+      <c r="H351" s="5">
+        <v>-1.19</v>
+      </c>
+      <c r="I351" s="5">
+        <v>-8059.09</v>
+      </c>
+      <c r="J351" s="5">
+        <v>0</v>
+      </c>
+      <c r="K351" s="5">
+        <v>7.68</v>
+      </c>
+      <c r="L351" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="352" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B352" t="s">
+        <v>79</v>
+      </c>
+      <c r="C352">
+        <v>-20</v>
+      </c>
+      <c r="D352" t="s">
+        <v>28</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F352" s="5">
+        <v>8060.28</v>
+      </c>
+      <c r="G352" s="5">
+        <v>-1.19</v>
+      </c>
+      <c r="H352" s="5">
+        <v>-8059.09</v>
+      </c>
+      <c r="I352" s="5">
+        <v>0</v>
+      </c>
+      <c r="J352" s="5">
+        <v>7.68</v>
+      </c>
+      <c r="K352" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="353" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B353" t="s">
+        <v>61</v>
+      </c>
+      <c r="C353" s="5">
+        <v>8224.18</v>
+      </c>
+      <c r="D353">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="E353" s="5">
+        <v>-7312.3</v>
+      </c>
+      <c r="F353" s="5">
+        <v>907.6</v>
+      </c>
+      <c r="G353" s="5">
+        <v>122.58</v>
+      </c>
+      <c r="H353" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="355" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B355">
+        <v>700</v>
+      </c>
+      <c r="C355" t="s">
+        <v>306</v>
+      </c>
+      <c r="D355">
+        <v>-100</v>
+      </c>
+      <c r="E355" s="5">
+        <v>324</v>
+      </c>
+      <c r="F355" s="5">
+        <v>327.2</v>
+      </c>
+      <c r="G355" s="5">
+        <v>32400</v>
+      </c>
+      <c r="H355" s="5">
+        <v>-69.84</v>
+      </c>
+      <c r="I355" s="5">
+        <v>-32509.88</v>
+      </c>
+      <c r="J355" s="5">
+        <v>-179.72</v>
+      </c>
+      <c r="K355" s="5">
+        <v>-320</v>
+      </c>
+      <c r="L355" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="356" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B356" t="s">
+        <v>289</v>
+      </c>
+      <c r="C356">
+        <v>-100</v>
+      </c>
+      <c r="D356" t="s">
+        <v>28</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F356" s="5">
+        <v>32400</v>
+      </c>
+      <c r="G356" s="5">
+        <v>-69.84</v>
+      </c>
+      <c r="H356" s="5">
+        <v>-32509.88</v>
+      </c>
+      <c r="I356" s="5">
+        <v>-179.72</v>
+      </c>
+      <c r="J356" s="5">
+        <v>-320</v>
+      </c>
+      <c r="K356" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="357" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B357" t="s">
+        <v>61</v>
+      </c>
+      <c r="C357" s="5">
+        <v>32400</v>
+      </c>
+      <c r="D357">
+        <v>-69.84</v>
+      </c>
+      <c r="E357" s="5">
+        <v>-32509.88</v>
+      </c>
+      <c r="F357" s="5">
+        <v>-179.72</v>
+      </c>
+      <c r="G357" s="5">
+        <v>-320</v>
+      </c>
+      <c r="H357" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="358" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B358" t="s">
+        <v>65</v>
+      </c>
+      <c r="C358" s="5">
+        <v>4127.76</v>
+      </c>
+      <c r="D358">
+        <v>-8.9</v>
+      </c>
+      <c r="E358" s="5">
+        <v>-4141.76</v>
+      </c>
+      <c r="F358" s="5">
+        <v>-22.9</v>
+      </c>
+      <c r="G358" s="5">
+        <v>-40.770000000000003</v>
+      </c>
+      <c r="H358" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="359" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B359" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="360" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B360" t="s">
+        <v>307</v>
+      </c>
+      <c r="C360" t="s">
+        <v>308</v>
+      </c>
+      <c r="D360">
+        <v>-100</v>
+      </c>
+      <c r="E360" s="5">
+        <v>3713.5</v>
+      </c>
+      <c r="F360" s="5">
+        <v>3724</v>
+      </c>
+      <c r="G360" s="5">
+        <v>371350</v>
+      </c>
+      <c r="H360" s="5">
+        <v>-297.08</v>
+      </c>
+      <c r="I360" s="5">
+        <v>-371052.92</v>
+      </c>
+      <c r="J360" s="5">
+        <v>0</v>
+      </c>
+      <c r="K360" s="5">
+        <v>-1050</v>
+      </c>
+      <c r="L360" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="361" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B361" t="s">
+        <v>309</v>
+      </c>
+      <c r="C361">
+        <v>-100</v>
+      </c>
+      <c r="D361" t="s">
+        <v>28</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F361" s="5">
+        <v>371350</v>
+      </c>
+      <c r="G361" s="5">
+        <v>-297.08</v>
+      </c>
+      <c r="H361" s="5">
+        <v>-371052.92</v>
+      </c>
+      <c r="I361" s="5">
+        <v>0</v>
+      </c>
+      <c r="J361" s="5">
+        <v>-1050</v>
+      </c>
+      <c r="K361" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="362" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B362" t="s">
+        <v>61</v>
+      </c>
+      <c r="C362" s="7">
+        <v>371350</v>
+      </c>
+      <c r="D362">
+        <v>-297.08</v>
+      </c>
+      <c r="E362" s="5">
+        <v>-371052.92</v>
+      </c>
+      <c r="F362" s="5">
+        <v>0</v>
+      </c>
+      <c r="G362" s="5">
+        <v>-1050</v>
+      </c>
+      <c r="H362" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="363" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B363" t="s">
+        <v>65</v>
+      </c>
+      <c r="C363" s="5">
+        <v>2672.35</v>
+      </c>
+      <c r="D363">
+        <v>-2.14</v>
+      </c>
+      <c r="E363" s="5">
+        <v>-2670.21</v>
+      </c>
+      <c r="F363" s="5">
+        <v>0</v>
+      </c>
+      <c r="G363" s="5">
+        <v>-7.56</v>
+      </c>
+      <c r="H363" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="365" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B365" t="s">
+        <v>310</v>
+      </c>
+      <c r="C365" t="s">
+        <v>311</v>
+      </c>
+      <c r="D365">
+        <v>100</v>
+      </c>
+      <c r="E365" s="5">
+        <v>59.975000000000001</v>
+      </c>
+      <c r="F365" s="5">
+        <v>60.6</v>
+      </c>
+      <c r="G365" s="5">
+        <v>-5997.5</v>
+      </c>
+      <c r="H365" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I365" s="5">
+        <v>5998.5</v>
+      </c>
+      <c r="J365" s="5">
+        <v>0</v>
+      </c>
+      <c r="K365" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="L365" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="366" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B366" t="s">
+        <v>312</v>
+      </c>
+      <c r="C366">
+        <v>100</v>
+      </c>
+      <c r="D366" t="s">
+        <v>28</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F366" s="5">
+        <v>-5997.5</v>
+      </c>
+      <c r="G366" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H366" s="5">
+        <v>5998.5</v>
+      </c>
+      <c r="I366" s="5">
+        <v>0</v>
+      </c>
+      <c r="J366" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="K366" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="367" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B367" t="s">
+        <v>68</v>
+      </c>
+      <c r="C367" t="s">
+        <v>313</v>
+      </c>
+      <c r="D367">
+        <v>20</v>
+      </c>
+      <c r="E367" s="5">
+        <v>392.62</v>
+      </c>
+      <c r="F367" s="5">
+        <v>396.42</v>
+      </c>
+      <c r="G367" s="5">
+        <v>-7852.4</v>
+      </c>
+      <c r="H367" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I367" s="5">
+        <v>8059.09</v>
+      </c>
+      <c r="J367" s="5">
+        <v>205.69</v>
+      </c>
+      <c r="K367" s="5">
+        <v>76</v>
+      </c>
+      <c r="L367" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="368" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B368" t="s">
+        <v>79</v>
+      </c>
+      <c r="C368">
+        <v>20</v>
+      </c>
+      <c r="D368" t="s">
+        <v>28</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F368" s="5">
+        <v>-7852.4</v>
+      </c>
+      <c r="G368" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H368" s="5">
+        <v>8059.09</v>
+      </c>
+      <c r="I368" s="5">
+        <v>205.69</v>
+      </c>
+      <c r="J368" s="5">
+        <v>76</v>
+      </c>
+      <c r="K368" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="369" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B369" t="s">
+        <v>61</v>
+      </c>
+      <c r="C369" s="5">
+        <v>-13849.9</v>
+      </c>
+      <c r="D369">
+        <v>-2</v>
+      </c>
+      <c r="E369" s="5">
+        <v>14057.59</v>
+      </c>
+      <c r="F369" s="5">
+        <v>205.69</v>
+      </c>
+      <c r="G369" s="5">
+        <v>138.5</v>
+      </c>
+      <c r="H369" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="371" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B371" t="s">
+        <v>263</v>
+      </c>
+      <c r="C371" t="s">
+        <v>314</v>
+      </c>
+      <c r="D371">
+        <v>25</v>
+      </c>
+      <c r="E371" s="5">
+        <v>88.53</v>
+      </c>
+      <c r="F371" s="5">
+        <v>87.58</v>
+      </c>
+      <c r="G371" s="5">
+        <v>-2213.25</v>
+      </c>
+      <c r="H371" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I371" s="5">
+        <v>2699.81</v>
+      </c>
+      <c r="J371" s="5">
+        <v>485.56</v>
+      </c>
+      <c r="K371" s="5">
+        <v>-23.75</v>
+      </c>
+      <c r="L371" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="372" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B372" t="s">
+        <v>265</v>
+      </c>
+      <c r="C372">
+        <v>25</v>
+      </c>
+      <c r="D372" t="s">
+        <v>28</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F372" s="5">
+        <v>-2213.25</v>
+      </c>
+      <c r="G372" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H372" s="5">
+        <v>2699.81</v>
+      </c>
+      <c r="I372" s="5">
+        <v>485.56</v>
+      </c>
+      <c r="J372" s="5">
+        <v>-23.75</v>
+      </c>
+      <c r="K372" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="373" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B373" t="s">
+        <v>310</v>
+      </c>
+      <c r="C373" t="s">
+        <v>315</v>
+      </c>
+      <c r="D373">
+        <v>-100</v>
+      </c>
+      <c r="E373" s="5">
+        <v>64.39</v>
+      </c>
+      <c r="F373" s="5">
+        <v>64.63</v>
+      </c>
+      <c r="G373" s="5">
+        <v>6439</v>
+      </c>
+      <c r="H373" s="5">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="I373" s="5">
+        <v>-5998.5</v>
+      </c>
+      <c r="J373" s="5">
+        <v>439.34</v>
+      </c>
+      <c r="K373" s="5">
+        <v>-24</v>
+      </c>
+      <c r="L373" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="374" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B374" t="s">
+        <v>312</v>
+      </c>
+      <c r="C374">
+        <v>-100</v>
+      </c>
+      <c r="D374" t="s">
+        <v>28</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F374" s="5">
+        <v>6439</v>
+      </c>
+      <c r="G374" s="5">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="H374" s="5">
+        <v>-5998.5</v>
+      </c>
+      <c r="I374" s="5">
+        <v>439.34</v>
+      </c>
+      <c r="J374" s="5">
+        <v>-24</v>
+      </c>
+      <c r="K374" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="375" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B375" t="s">
+        <v>61</v>
+      </c>
+      <c r="C375" s="5">
+        <v>4225.75</v>
+      </c>
+      <c r="D375">
+        <v>-2.16</v>
+      </c>
+      <c r="E375" s="5">
+        <v>-3298.69</v>
+      </c>
+      <c r="F375" s="5">
+        <v>924.9</v>
+      </c>
+      <c r="G375" s="5">
+        <v>-47.75</v>
+      </c>
+      <c r="H375" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -13267,7 +14543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2974B33B-21F9-4CF3-8C9B-14B2F50B06AA}">
   <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -13314,7 +14590,7 @@
         <v>57</v>
       </c>
       <c r="M2" s="9">
-        <f t="shared" ref="M2:M14" si="0">D2/$D$15</f>
+        <f t="shared" ref="M2:M13" si="0">D2/$D$15</f>
         <v>0.36663611365719523</v>
       </c>
       <c r="N2" s="9">
@@ -13956,7 +15232,7 @@
         <v>20</v>
       </c>
       <c r="M19">
-        <f t="shared" ref="M19:M43" si="2">D19/$D$44*E19</f>
+        <f t="shared" ref="M19:M42" si="2">D19/$D$44*E19</f>
         <v>0.53111111111111109</v>
       </c>
     </row>

--- a/Trading Account.xlsx
+++ b/Trading Account.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049B1983-5A73-4EED-99EB-6056A6EC2BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1465166C-8EF2-4ECE-9907-2B50A41EBB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="1665" windowWidth="24495" windowHeight="17940" xr2:uid="{5AC812C1-C6FA-4E05-932F-D1EBD613AE9A}"/>
+    <workbookView xWindow="21750" yWindow="720" windowWidth="28950" windowHeight="19590" xr2:uid="{5AC812C1-C6FA-4E05-932F-D1EBD613AE9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="372">
   <si>
     <t>Date</t>
   </si>
@@ -1003,6 +1003,174 @@
   </si>
   <si>
     <t>2022-09-02, 10:10:28</t>
+  </si>
+  <si>
+    <t>GSK 16SEP22 30 C</t>
+  </si>
+  <si>
+    <t>2022-09-09, 15:38:34</t>
+  </si>
+  <si>
+    <t>Total GSK 16SEP22 30 C</t>
+  </si>
+  <si>
+    <t>GSK 16SEP22 31 C</t>
+  </si>
+  <si>
+    <t>2022-09-09, 15:23:41</t>
+  </si>
+  <si>
+    <t>Total GSK 16SEP22 31 C</t>
+  </si>
+  <si>
+    <t>LQDA 16SEP22 7.5 C</t>
+  </si>
+  <si>
+    <t>2022-09-09, 15:45:58</t>
+  </si>
+  <si>
+    <t>Total LQDA 16SEP22 7.5 C</t>
+  </si>
+  <si>
+    <t>2022-09-07, 20:25:51</t>
+  </si>
+  <si>
+    <t>2022-09-07, 20:26:00</t>
+  </si>
+  <si>
+    <t>2022-09-08, 09:25:00</t>
+  </si>
+  <si>
+    <t>2022-09-08, 09:42:03</t>
+  </si>
+  <si>
+    <t>2022-09-08, 09:44:57</t>
+  </si>
+  <si>
+    <t>2022-09-06, 20:24:46</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>2022-09-07, 10:00:35</t>
+  </si>
+  <si>
+    <t>2022-09-07, 10:03:10</t>
+  </si>
+  <si>
+    <t>Total ABT</t>
+  </si>
+  <si>
+    <t>2022-09-07, 09:32:55</t>
+  </si>
+  <si>
+    <t>2022-09-07, 13:58:39</t>
+  </si>
+  <si>
+    <t>2022-09-07, 10:04:07</t>
+  </si>
+  <si>
+    <t>2022-09-07, 10:04:22</t>
+  </si>
+  <si>
+    <t>2022-09-07, 09:31:29</t>
+  </si>
+  <si>
+    <t>ZBH</t>
+  </si>
+  <si>
+    <t>2022-09-07, 09:33:44</t>
+  </si>
+  <si>
+    <t>C;FPA;P</t>
+  </si>
+  <si>
+    <t>Total ZBH</t>
+  </si>
+  <si>
+    <t>2022-09-06, 13:25:00</t>
+  </si>
+  <si>
+    <t>2022-09-06, 13:10:51</t>
+  </si>
+  <si>
+    <t>2022-09-06, 13:24:35</t>
+  </si>
+  <si>
+    <t>FPA;O;P;RPA</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>BMY</t>
+  </si>
+  <si>
+    <t>2022-09-12, 08:46:59</t>
+  </si>
+  <si>
+    <t>2022-09-12, 10:27:45</t>
+  </si>
+  <si>
+    <t>Equity and Index Options</t>
+  </si>
+  <si>
+    <t>2022-09-12, 11:26:38</t>
+  </si>
+  <si>
+    <t>2022-09-12, 15:53:26</t>
+  </si>
+  <si>
+    <t>Total BMY</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>2022-09-15, 14:37:33</t>
+  </si>
+  <si>
+    <t>Total ADBE</t>
+  </si>
+  <si>
+    <t>ADBE 21OCT22 300 C</t>
+  </si>
+  <si>
+    <t>2022-09-15, 14:46:19</t>
+  </si>
+  <si>
+    <t>Total ADBE 21OCT22 300 C</t>
+  </si>
+  <si>
+    <t>2022-09-16, 12:21:21</t>
+  </si>
+  <si>
+    <t>2022-09-16, 12:20:36</t>
+  </si>
+  <si>
+    <t>GSK</t>
+  </si>
+  <si>
+    <t>2022-09-16, 16:20:00</t>
+  </si>
+  <si>
+    <t>Ex;O</t>
+  </si>
+  <si>
+    <t>Total GSK</t>
+  </si>
+  <si>
+    <t>2022-09-16, 12:19:38</t>
+  </si>
+  <si>
+    <t>2022-09-16, 12:21:59</t>
+  </si>
+  <si>
+    <t>C;Ex</t>
+  </si>
+  <si>
+    <t>C;Ep</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1289,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Main!$B$5:$B$41</c:f>
+              <c:f>Main!$B$5:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44760</c:v>
                 </c:pt>
@@ -1236,15 +1404,39 @@
                 <c:pt idx="36">
                   <c:v>44810</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44811</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44818</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44819</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44820</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$G$5:$G$41</c:f>
+              <c:f>Main!$G$5:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.123253471767649E-2</c:v>
                 </c:pt>
@@ -1355,6 +1547,30 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>7.5492119756933374E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.4969819626057097E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.2989335299597187E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.3352836803940464E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.7434916915931424E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.7536414812716234E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.9646195848323451E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.1320650506534484E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.5783768533702176E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2444,13 +2660,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAE940E-6F97-4759-B7C4-CA0B0F24A13F}">
-  <dimension ref="B3:G44"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2461,7 +2677,12 @@
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -2481,7 +2702,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>44757</v>
       </c>
@@ -2490,7 +2711,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>44760</v>
       </c>
@@ -2514,7 +2735,7 @@
         <v>1.123253471767649E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <f>B5+1</f>
         <v>44761</v>
@@ -2539,7 +2760,7 @@
         <v>4.5583924280268917E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <f>B6+1</f>
         <v>44762</v>
@@ -2564,7 +2785,7 @@
         <v>5.9369723806503405E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <f>B7+1</f>
         <v>44763</v>
@@ -2590,7 +2811,7 @@
         <v>6.1891751758913482E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>44764</v>
       </c>
@@ -2614,7 +2835,7 @@
         <v>7.4317852718820188E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>44767</v>
       </c>
@@ -2638,7 +2859,7 @@
         <v>6.7028921349575388E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <f>+B10+1</f>
         <v>44768</v>
@@ -2663,7 +2884,7 @@
         <v>4.0844278502238485E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <f>+B11+1</f>
         <v>44769</v>
@@ -2688,7 +2909,7 @@
         <v>6.3254036816514647E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <f>+B12+1</f>
         <v>44770</v>
@@ -2713,7 +2934,7 @@
         <v>2.7384973759050357E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f>+B13+1</f>
         <v>44771</v>
@@ -2738,7 +2959,7 @@
         <v>-1.0584121251527523E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>44774</v>
       </c>
@@ -2762,7 +2983,7 @@
         <v>5.6246237152612899E-4</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <f>+B15+1</f>
         <v>44775</v>
@@ -3463,23 +3684,147 @@
         <v>44813</v>
       </c>
       <c r="C44" s="4">
-        <v>55153</v>
+        <v>54953.16</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="14"/>
-        <v>218.11000000000058</v>
+        <v>18.270000000004075</v>
       </c>
       <c r="E44" s="8">
         <f t="shared" si="15"/>
-        <v>4891.8600000000006</v>
+        <v>4692.0200000000041</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="16"/>
-        <v>3.9703365201968488E-3</v>
+        <v>3.3257552713772398E-4</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="17"/>
-        <v>9.7328870773722986E-2</v>
+        <v>9.3352836803940464E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>44816</v>
+      </c>
+      <c r="C45" s="4">
+        <v>55158.33</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" ref="D45" si="18">C45-C44</f>
+        <v>205.16999999999825</v>
+      </c>
+      <c r="E45" s="8">
+        <f t="shared" ref="E45" si="19">C45-$C$4</f>
+        <v>4897.1900000000023</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" ref="F45" si="20">+C45/C44-1</f>
+        <v>3.7335432575669181E-3</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" ref="G45" si="21">C45/$C$4-1</f>
+        <v>9.7434916915931424E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <f>+B45+1</f>
+        <v>44817</v>
+      </c>
+      <c r="C46" s="4">
+        <v>54660.82</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" ref="D46" si="22">C46-C45</f>
+        <v>-497.51000000000204</v>
+      </c>
+      <c r="E46" s="8">
+        <f t="shared" ref="E46" si="23">C46-$C$4</f>
+        <v>4399.68</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" ref="F46" si="24">+C46/C45-1</f>
+        <v>-9.0196711901902038E-3</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" ref="G46" si="25">C46/$C$4-1</f>
+        <v>8.7536414812716234E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <f>+B46+1</f>
+        <v>44818</v>
+      </c>
+      <c r="C47" s="4">
+        <v>54766.86</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" ref="D47" si="26">C47-C46</f>
+        <v>106.04000000000087</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" ref="E47" si="27">C47-$C$4</f>
+        <v>4505.7200000000012</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" ref="F47" si="28">+C47/C46-1</f>
+        <v>1.9399635790315894E-3</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" ref="G47" si="29">C47/$C$4-1</f>
+        <v>8.9646195848323451E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <f>+B47+1</f>
+        <v>44819</v>
+      </c>
+      <c r="C48" s="4">
+        <v>54851.02</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" ref="D48" si="30">C48-C47</f>
+        <v>84.159999999996217</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" ref="E48" si="31">C48-$C$4</f>
+        <v>4589.8799999999974</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" ref="F48" si="32">+C48/C47-1</f>
+        <v>1.5366957316886865E-3</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" ref="G48" si="33">C48/$C$4-1</f>
+        <v>9.1320650506534484E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <f>+B48+1</f>
+        <v>44820</v>
+      </c>
+      <c r="C49" s="4">
+        <v>54572.73</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" ref="D49" si="34">C49-C48</f>
+        <v>-278.2899999999936</v>
+      </c>
+      <c r="E49" s="8">
+        <f t="shared" ref="E49" si="35">C49-$C$4</f>
+        <v>4311.5900000000038</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" ref="F49" si="36">+C49/C48-1</f>
+        <v>-5.0735610750719529E-3</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" ref="G49" si="37">C49/$C$4-1</f>
+        <v>8.5783768533702176E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3492,13 +3837,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038FFE9E-7C90-4B6C-9246-D1FB4481747B}">
-  <dimension ref="B2:P375"/>
+  <dimension ref="B2:P462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C342" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C410" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B377" sqref="B376:B377"/>
+      <selection pane="bottomRight" activeCell="H463" sqref="H463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14531,6 +14876,2363 @@
       </c>
       <c r="H375" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="378" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B378" t="s">
+        <v>331</v>
+      </c>
+      <c r="C378" t="s">
+        <v>344</v>
+      </c>
+      <c r="D378">
+        <v>-30</v>
+      </c>
+      <c r="E378" s="5">
+        <v>102.495</v>
+      </c>
+      <c r="F378" s="5">
+        <v>102.71</v>
+      </c>
+      <c r="G378" s="5">
+        <v>3074.85</v>
+      </c>
+      <c r="H378" s="5">
+        <v>-1.07</v>
+      </c>
+      <c r="I378" s="5">
+        <v>-3073.78</v>
+      </c>
+      <c r="J378" s="5">
+        <v>0</v>
+      </c>
+      <c r="K378" s="5">
+        <v>-6.45</v>
+      </c>
+      <c r="L378" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="379" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B379" t="s">
+        <v>334</v>
+      </c>
+      <c r="C379">
+        <v>-30</v>
+      </c>
+      <c r="D379" t="s">
+        <v>28</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F379" s="5">
+        <v>3074.85</v>
+      </c>
+      <c r="G379" s="5">
+        <v>-1.07</v>
+      </c>
+      <c r="H379" s="5">
+        <v>-3073.78</v>
+      </c>
+      <c r="I379" s="5">
+        <v>0</v>
+      </c>
+      <c r="J379" s="5">
+        <v>-6.45</v>
+      </c>
+      <c r="K379" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="380" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B380" t="s">
+        <v>49</v>
+      </c>
+      <c r="C380" t="s">
+        <v>345</v>
+      </c>
+      <c r="D380">
+        <v>118</v>
+      </c>
+      <c r="E380" s="5">
+        <v>13.68</v>
+      </c>
+      <c r="F380" s="5">
+        <v>13.42</v>
+      </c>
+      <c r="G380" s="5">
+        <v>-1614.24</v>
+      </c>
+      <c r="H380" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I380" s="5">
+        <v>1172.2</v>
+      </c>
+      <c r="J380" s="5">
+        <v>-443.04</v>
+      </c>
+      <c r="K380" s="5">
+        <v>-30.68</v>
+      </c>
+      <c r="L380" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="381" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B381" t="s">
+        <v>51</v>
+      </c>
+      <c r="C381">
+        <v>118</v>
+      </c>
+      <c r="D381" t="s">
+        <v>28</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F381" s="5">
+        <v>-1614.24</v>
+      </c>
+      <c r="G381" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H381" s="5">
+        <v>1172.2</v>
+      </c>
+      <c r="I381" s="5">
+        <v>-443.04</v>
+      </c>
+      <c r="J381" s="5">
+        <v>-30.68</v>
+      </c>
+      <c r="K381" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="382" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B382" t="s">
+        <v>340</v>
+      </c>
+      <c r="C382" t="s">
+        <v>346</v>
+      </c>
+      <c r="D382">
+        <v>28.796199999999999</v>
+      </c>
+      <c r="E382" s="5">
+        <v>104.18014659000001</v>
+      </c>
+      <c r="F382" s="5">
+        <v>104.93</v>
+      </c>
+      <c r="G382" s="5">
+        <v>-2999.99</v>
+      </c>
+      <c r="H382" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I382" s="5">
+        <v>3000.99</v>
+      </c>
+      <c r="J382" s="5">
+        <v>0</v>
+      </c>
+      <c r="K382" s="5">
+        <v>21.59</v>
+      </c>
+      <c r="L382" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="383" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B383" t="s">
+        <v>343</v>
+      </c>
+      <c r="C383">
+        <v>28.796199999999999</v>
+      </c>
+      <c r="D383" t="s">
+        <v>28</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F383" s="5">
+        <v>-2999.99</v>
+      </c>
+      <c r="G383" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H383" s="5">
+        <v>3000.99</v>
+      </c>
+      <c r="I383" s="5">
+        <v>0</v>
+      </c>
+      <c r="J383" s="5">
+        <v>21.59</v>
+      </c>
+      <c r="K383" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="385" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B385" t="s">
+        <v>299</v>
+      </c>
+      <c r="C385" t="s">
+        <v>330</v>
+      </c>
+      <c r="D385">
+        <v>100</v>
+      </c>
+      <c r="E385" s="5">
+        <v>3803</v>
+      </c>
+      <c r="F385" s="5">
+        <v>3784</v>
+      </c>
+      <c r="G385" s="5">
+        <v>-380300</v>
+      </c>
+      <c r="H385" s="5">
+        <v>-304.24</v>
+      </c>
+      <c r="I385" s="5">
+        <v>381294.72</v>
+      </c>
+      <c r="J385" s="5">
+        <v>690.48</v>
+      </c>
+      <c r="K385" s="5">
+        <v>-1900</v>
+      </c>
+      <c r="L385" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="386" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B386" t="s">
+        <v>301</v>
+      </c>
+      <c r="C386">
+        <v>100</v>
+      </c>
+      <c r="D386" t="s">
+        <v>28</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F386" s="5">
+        <v>-380300</v>
+      </c>
+      <c r="G386" s="5">
+        <v>-304.24</v>
+      </c>
+      <c r="H386" s="5">
+        <v>381294.72</v>
+      </c>
+      <c r="I386" s="5">
+        <v>690.48</v>
+      </c>
+      <c r="J386" s="5">
+        <v>-1900</v>
+      </c>
+      <c r="K386" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="387" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B387" t="s">
+        <v>61</v>
+      </c>
+      <c r="C387" s="7">
+        <v>-380300</v>
+      </c>
+      <c r="D387">
+        <v>-304.24</v>
+      </c>
+      <c r="E387" s="5">
+        <v>381294.72</v>
+      </c>
+      <c r="F387" s="5">
+        <v>690.48</v>
+      </c>
+      <c r="G387" s="5">
+        <v>-1900</v>
+      </c>
+      <c r="H387" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="388" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B388" t="s">
+        <v>65</v>
+      </c>
+      <c r="C388" s="5">
+        <v>-2645.59</v>
+      </c>
+      <c r="D388">
+        <v>-2.12</v>
+      </c>
+      <c r="E388" s="5">
+        <v>2652.51</v>
+      </c>
+      <c r="F388" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="G388" s="5">
+        <v>-13.22</v>
+      </c>
+      <c r="H388" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="389" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B389" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="390" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B390" t="s">
+        <v>331</v>
+      </c>
+      <c r="C390" t="s">
+        <v>332</v>
+      </c>
+      <c r="D390">
+        <v>100</v>
+      </c>
+      <c r="E390" s="5">
+        <v>102.83</v>
+      </c>
+      <c r="F390" s="5">
+        <v>104.7</v>
+      </c>
+      <c r="G390" s="5">
+        <v>-10283</v>
+      </c>
+      <c r="H390" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I390" s="5">
+        <v>3073.78</v>
+      </c>
+      <c r="J390" s="5">
+        <v>-11.42</v>
+      </c>
+      <c r="K390" s="5">
+        <v>187</v>
+      </c>
+      <c r="L390" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="391" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B391" t="s">
+        <v>331</v>
+      </c>
+      <c r="C391" t="s">
+        <v>333</v>
+      </c>
+      <c r="D391">
+        <v>-70</v>
+      </c>
+      <c r="E391" s="5">
+        <v>103.18</v>
+      </c>
+      <c r="F391" s="5">
+        <v>104.7</v>
+      </c>
+      <c r="G391" s="5">
+        <v>7222.6</v>
+      </c>
+      <c r="H391" s="5">
+        <v>-1.17</v>
+      </c>
+      <c r="I391" s="5">
+        <v>-7198.8</v>
+      </c>
+      <c r="J391" s="5">
+        <v>22.63</v>
+      </c>
+      <c r="K391" s="5">
+        <v>-106.4</v>
+      </c>
+      <c r="L391" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="392" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B392" t="s">
+        <v>334</v>
+      </c>
+      <c r="C392">
+        <v>30</v>
+      </c>
+      <c r="D392" t="s">
+        <v>28</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F392" s="5">
+        <v>-3060.4</v>
+      </c>
+      <c r="G392" s="5">
+        <v>-2.17</v>
+      </c>
+      <c r="H392" s="5">
+        <v>-4125.0200000000004</v>
+      </c>
+      <c r="I392" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="J392" s="5">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="K392" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="393" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B393" t="s">
+        <v>260</v>
+      </c>
+      <c r="C393" t="s">
+        <v>335</v>
+      </c>
+      <c r="D393">
+        <v>10</v>
+      </c>
+      <c r="E393" s="5">
+        <v>201.13</v>
+      </c>
+      <c r="F393" s="5">
+        <v>208.39</v>
+      </c>
+      <c r="G393" s="5">
+        <v>-2011.3</v>
+      </c>
+      <c r="H393" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I393" s="5">
+        <v>2214.0500000000002</v>
+      </c>
+      <c r="J393" s="5">
+        <v>201.75</v>
+      </c>
+      <c r="K393" s="5">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="L393" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="394" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B394" t="s">
+        <v>260</v>
+      </c>
+      <c r="C394" t="s">
+        <v>336</v>
+      </c>
+      <c r="D394">
+        <v>-15</v>
+      </c>
+      <c r="E394" s="5">
+        <v>207.01</v>
+      </c>
+      <c r="F394" s="5">
+        <v>208.39</v>
+      </c>
+      <c r="G394" s="5">
+        <v>3105.15</v>
+      </c>
+      <c r="H394" s="5">
+        <v>-1.07</v>
+      </c>
+      <c r="I394" s="5">
+        <v>-3104.08</v>
+      </c>
+      <c r="J394" s="5">
+        <v>0</v>
+      </c>
+      <c r="K394" s="5">
+        <v>-20.7</v>
+      </c>
+      <c r="L394" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="395" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B395" t="s">
+        <v>262</v>
+      </c>
+      <c r="C395">
+        <v>-5</v>
+      </c>
+      <c r="D395" t="s">
+        <v>28</v>
+      </c>
+      <c r="E395" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F395" s="5">
+        <v>1093.8499999999999</v>
+      </c>
+      <c r="G395" s="5">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="H395" s="5">
+        <v>-890.03</v>
+      </c>
+      <c r="I395" s="5">
+        <v>201.75</v>
+      </c>
+      <c r="J395" s="5">
+        <v>51.9</v>
+      </c>
+      <c r="K395" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="396" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B396" t="s">
+        <v>35</v>
+      </c>
+      <c r="C396" t="s">
+        <v>337</v>
+      </c>
+      <c r="D396">
+        <v>-100</v>
+      </c>
+      <c r="E396" s="5">
+        <v>4.3049999999999997</v>
+      </c>
+      <c r="F396" s="5">
+        <v>4.17</v>
+      </c>
+      <c r="G396" s="5">
+        <v>430.5</v>
+      </c>
+      <c r="H396" s="5">
+        <v>-1.02</v>
+      </c>
+      <c r="I396" s="5">
+        <v>-429.48</v>
+      </c>
+      <c r="J396" s="5">
+        <v>49.02</v>
+      </c>
+      <c r="K396" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="L396" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="397" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B397" t="s">
+        <v>35</v>
+      </c>
+      <c r="C397" t="s">
+        <v>338</v>
+      </c>
+      <c r="D397">
+        <v>-200</v>
+      </c>
+      <c r="E397" s="5">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F397" s="5">
+        <v>4.17</v>
+      </c>
+      <c r="G397" s="5">
+        <v>862</v>
+      </c>
+      <c r="H397" s="5">
+        <v>-1.05</v>
+      </c>
+      <c r="I397" s="5">
+        <v>-860.95</v>
+      </c>
+      <c r="J397" s="5">
+        <v>0</v>
+      </c>
+      <c r="K397" s="5">
+        <v>28</v>
+      </c>
+      <c r="L397" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B398" t="s">
+        <v>37</v>
+      </c>
+      <c r="C398">
+        <v>-300</v>
+      </c>
+      <c r="D398" t="s">
+        <v>28</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F398" s="5">
+        <v>1292.5</v>
+      </c>
+      <c r="G398" s="5">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="H398" s="5">
+        <v>-1290.43</v>
+      </c>
+      <c r="I398" s="5">
+        <v>49.02</v>
+      </c>
+      <c r="J398" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="K398" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="399" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B399" t="s">
+        <v>160</v>
+      </c>
+      <c r="C399" t="s">
+        <v>339</v>
+      </c>
+      <c r="D399">
+        <v>-100</v>
+      </c>
+      <c r="E399" s="5">
+        <v>15.93</v>
+      </c>
+      <c r="F399" s="5">
+        <v>11.51</v>
+      </c>
+      <c r="G399" s="5">
+        <v>1593</v>
+      </c>
+      <c r="H399" s="5">
+        <v>-1.05</v>
+      </c>
+      <c r="I399" s="5">
+        <v>-1573.7</v>
+      </c>
+      <c r="J399" s="5">
+        <v>18.25</v>
+      </c>
+      <c r="K399" s="5">
+        <v>442</v>
+      </c>
+      <c r="L399" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="400" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B400" t="s">
+        <v>162</v>
+      </c>
+      <c r="C400">
+        <v>-100</v>
+      </c>
+      <c r="D400" t="s">
+        <v>28</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F400" s="5">
+        <v>1593</v>
+      </c>
+      <c r="G400" s="5">
+        <v>-1.05</v>
+      </c>
+      <c r="H400" s="5">
+        <v>-1573.7</v>
+      </c>
+      <c r="I400" s="5">
+        <v>18.25</v>
+      </c>
+      <c r="J400" s="5">
+        <v>442</v>
+      </c>
+      <c r="K400" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="401" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B401" t="s">
+        <v>340</v>
+      </c>
+      <c r="C401" t="s">
+        <v>341</v>
+      </c>
+      <c r="D401">
+        <v>-28.796199999999999</v>
+      </c>
+      <c r="E401" s="5">
+        <v>104.96972350999999</v>
+      </c>
+      <c r="F401" s="5">
+        <v>108.58</v>
+      </c>
+      <c r="G401" s="5">
+        <v>3022.73</v>
+      </c>
+      <c r="H401" s="5">
+        <v>-1.07</v>
+      </c>
+      <c r="I401" s="5">
+        <v>-3000.99</v>
+      </c>
+      <c r="J401" s="5">
+        <v>20.66</v>
+      </c>
+      <c r="K401" s="5">
+        <v>-103.96</v>
+      </c>
+      <c r="L401" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="402" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B402" t="s">
+        <v>343</v>
+      </c>
+      <c r="C402">
+        <v>-28.796199999999999</v>
+      </c>
+      <c r="D402" t="s">
+        <v>28</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F402" s="5">
+        <v>3022.73</v>
+      </c>
+      <c r="G402" s="5">
+        <v>-1.07</v>
+      </c>
+      <c r="H402" s="5">
+        <v>-3000.99</v>
+      </c>
+      <c r="I402" s="5">
+        <v>20.66</v>
+      </c>
+      <c r="J402" s="5">
+        <v>-103.96</v>
+      </c>
+      <c r="K402" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="404" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B404" t="s">
+        <v>291</v>
+      </c>
+      <c r="C404" t="s">
+        <v>325</v>
+      </c>
+      <c r="D404">
+        <v>-100</v>
+      </c>
+      <c r="E404" s="5">
+        <v>2054</v>
+      </c>
+      <c r="F404" s="5">
+        <v>2080.5</v>
+      </c>
+      <c r="G404" s="5">
+        <v>205400</v>
+      </c>
+      <c r="H404" s="5">
+        <v>-164.32</v>
+      </c>
+      <c r="I404" s="5">
+        <v>-211869.36</v>
+      </c>
+      <c r="J404" s="5">
+        <v>-6633.68</v>
+      </c>
+      <c r="K404" s="5">
+        <v>-2650</v>
+      </c>
+      <c r="L404" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="405" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B405" t="s">
+        <v>293</v>
+      </c>
+      <c r="C405">
+        <v>-100</v>
+      </c>
+      <c r="D405" t="s">
+        <v>28</v>
+      </c>
+      <c r="E405" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F405" s="5">
+        <v>205400</v>
+      </c>
+      <c r="G405" s="5">
+        <v>-164.32</v>
+      </c>
+      <c r="H405" s="5">
+        <v>-211869.36</v>
+      </c>
+      <c r="I405" s="5">
+        <v>-6633.68</v>
+      </c>
+      <c r="J405" s="5">
+        <v>-2650</v>
+      </c>
+      <c r="K405" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="406" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B406" t="s">
+        <v>307</v>
+      </c>
+      <c r="C406" t="s">
+        <v>326</v>
+      </c>
+      <c r="D406">
+        <v>100</v>
+      </c>
+      <c r="E406" s="5">
+        <v>3637</v>
+      </c>
+      <c r="F406" s="5">
+        <v>3660</v>
+      </c>
+      <c r="G406" s="5">
+        <v>-363700</v>
+      </c>
+      <c r="H406" s="5">
+        <v>-290.95999999999998</v>
+      </c>
+      <c r="I406" s="5">
+        <v>371052.92</v>
+      </c>
+      <c r="J406" s="5">
+        <v>7061.96</v>
+      </c>
+      <c r="K406" s="5">
+        <v>2300</v>
+      </c>
+      <c r="L406" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="407" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B407" t="s">
+        <v>309</v>
+      </c>
+      <c r="C407">
+        <v>100</v>
+      </c>
+      <c r="D407" t="s">
+        <v>28</v>
+      </c>
+      <c r="E407" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F407" s="5">
+        <v>-363700</v>
+      </c>
+      <c r="G407" s="5">
+        <v>-290.95999999999998</v>
+      </c>
+      <c r="H407" s="5">
+        <v>371052.92</v>
+      </c>
+      <c r="I407" s="5">
+        <v>7061.96</v>
+      </c>
+      <c r="J407" s="5">
+        <v>2300</v>
+      </c>
+      <c r="K407" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="408" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B408" t="s">
+        <v>61</v>
+      </c>
+      <c r="C408" s="7">
+        <v>-158300</v>
+      </c>
+      <c r="D408">
+        <v>-455.28</v>
+      </c>
+      <c r="E408" s="5">
+        <v>159183.56</v>
+      </c>
+      <c r="F408" s="5">
+        <v>428.28</v>
+      </c>
+      <c r="G408" s="5">
+        <v>-350</v>
+      </c>
+      <c r="H408" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="409" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B409" t="s">
+        <v>65</v>
+      </c>
+      <c r="C409" s="5">
+        <v>-1098.46</v>
+      </c>
+      <c r="D409">
+        <v>-3.16</v>
+      </c>
+      <c r="E409" s="5">
+        <v>1104.5899999999999</v>
+      </c>
+      <c r="F409" s="5">
+        <v>2.97</v>
+      </c>
+      <c r="G409" s="5">
+        <v>-2.4300000000000002</v>
+      </c>
+      <c r="H409" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="410" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B410" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="411" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B411" t="s">
+        <v>138</v>
+      </c>
+      <c r="C411" t="s">
+        <v>327</v>
+      </c>
+      <c r="D411">
+        <v>-100</v>
+      </c>
+      <c r="E411" s="5">
+        <v>5.96</v>
+      </c>
+      <c r="F411" s="5">
+        <v>6.13</v>
+      </c>
+      <c r="G411" s="5">
+        <v>596</v>
+      </c>
+      <c r="H411" s="5">
+        <v>-1.03</v>
+      </c>
+      <c r="I411" s="5">
+        <v>-492.5</v>
+      </c>
+      <c r="J411" s="5">
+        <v>102.47</v>
+      </c>
+      <c r="K411" s="5">
+        <v>-17</v>
+      </c>
+      <c r="L411" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="412" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B412" t="s">
+        <v>138</v>
+      </c>
+      <c r="C412" t="s">
+        <v>328</v>
+      </c>
+      <c r="D412">
+        <v>-100</v>
+      </c>
+      <c r="E412" s="5">
+        <v>6.141</v>
+      </c>
+      <c r="F412" s="5">
+        <v>6.13</v>
+      </c>
+      <c r="G412" s="5">
+        <v>614.1</v>
+      </c>
+      <c r="H412" s="5">
+        <v>-1.03</v>
+      </c>
+      <c r="I412" s="5">
+        <v>-492.5</v>
+      </c>
+      <c r="J412" s="5">
+        <v>120.57</v>
+      </c>
+      <c r="K412" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L412" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="413" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B413" t="s">
+        <v>138</v>
+      </c>
+      <c r="C413" t="s">
+        <v>329</v>
+      </c>
+      <c r="D413">
+        <v>-100</v>
+      </c>
+      <c r="E413" s="5">
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="F413" s="5">
+        <v>6.13</v>
+      </c>
+      <c r="G413" s="5">
+        <v>621.5</v>
+      </c>
+      <c r="H413" s="5">
+        <v>-1.03</v>
+      </c>
+      <c r="I413" s="5">
+        <v>-492.5</v>
+      </c>
+      <c r="J413" s="5">
+        <v>127.97</v>
+      </c>
+      <c r="K413" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="L413" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="414" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B414" t="s">
+        <v>141</v>
+      </c>
+      <c r="C414">
+        <v>-300</v>
+      </c>
+      <c r="D414" t="s">
+        <v>28</v>
+      </c>
+      <c r="E414" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F414" s="5">
+        <v>1831.6</v>
+      </c>
+      <c r="G414" s="5">
+        <v>-3.08</v>
+      </c>
+      <c r="H414" s="5">
+        <v>-1477.5</v>
+      </c>
+      <c r="I414" s="5">
+        <v>351.02</v>
+      </c>
+      <c r="J414" s="5">
+        <v>-7.4</v>
+      </c>
+      <c r="K414" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="416" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B416" t="s">
+        <v>316</v>
+      </c>
+      <c r="C416" t="s">
+        <v>317</v>
+      </c>
+      <c r="D416">
+        <v>2</v>
+      </c>
+      <c r="E416" s="5">
+        <v>2</v>
+      </c>
+      <c r="F416" s="5">
+        <v>1.9741</v>
+      </c>
+      <c r="G416" s="5">
+        <v>-400</v>
+      </c>
+      <c r="H416" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="I416" s="5">
+        <v>399.7</v>
+      </c>
+      <c r="J416" s="5">
+        <v>0</v>
+      </c>
+      <c r="K416" s="5">
+        <v>-5.18</v>
+      </c>
+      <c r="L416" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="417" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B417" t="s">
+        <v>318</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+      <c r="D417" t="s">
+        <v>28</v>
+      </c>
+      <c r="E417" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F417" s="5">
+        <v>-400</v>
+      </c>
+      <c r="G417" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H417" s="5">
+        <v>399.7</v>
+      </c>
+      <c r="I417" s="5">
+        <v>0</v>
+      </c>
+      <c r="J417" s="5">
+        <v>-5.18</v>
+      </c>
+      <c r="K417" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="418" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B418" t="s">
+        <v>319</v>
+      </c>
+      <c r="C418" t="s">
+        <v>320</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+      <c r="E418" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F418" s="5">
+        <v>1.0495000000000001</v>
+      </c>
+      <c r="G418" s="5">
+        <v>-109</v>
+      </c>
+      <c r="H418" s="5">
+        <v>-1.05</v>
+      </c>
+      <c r="I418" s="5">
+        <v>110.05</v>
+      </c>
+      <c r="J418" s="5">
+        <v>0</v>
+      </c>
+      <c r="K418" s="5">
+        <v>-4.05</v>
+      </c>
+      <c r="L418" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="419" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B419" t="s">
+        <v>321</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419" t="s">
+        <v>28</v>
+      </c>
+      <c r="E419" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F419" s="5">
+        <v>-109</v>
+      </c>
+      <c r="G419" s="5">
+        <v>-1.05</v>
+      </c>
+      <c r="H419" s="5">
+        <v>110.05</v>
+      </c>
+      <c r="I419" s="5">
+        <v>0</v>
+      </c>
+      <c r="J419" s="5">
+        <v>-4.05</v>
+      </c>
+      <c r="K419" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="420" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B420" t="s">
+        <v>322</v>
+      </c>
+      <c r="C420" t="s">
+        <v>323</v>
+      </c>
+      <c r="D420">
+        <v>-5</v>
+      </c>
+      <c r="E420" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F420" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="G420" s="5">
+        <v>50</v>
+      </c>
+      <c r="H420" s="5">
+        <v>-7.76</v>
+      </c>
+      <c r="I420" s="5">
+        <v>-42.24</v>
+      </c>
+      <c r="J420" s="5">
+        <v>0</v>
+      </c>
+      <c r="K420" s="5">
+        <v>-12.5</v>
+      </c>
+      <c r="L420" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="421" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B421" t="s">
+        <v>324</v>
+      </c>
+      <c r="C421">
+        <v>-5</v>
+      </c>
+      <c r="D421" t="s">
+        <v>28</v>
+      </c>
+      <c r="E421" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F421" s="5">
+        <v>50</v>
+      </c>
+      <c r="G421" s="5">
+        <v>-7.76</v>
+      </c>
+      <c r="H421" s="5">
+        <v>-42.24</v>
+      </c>
+      <c r="I421" s="5">
+        <v>0</v>
+      </c>
+      <c r="J421" s="5">
+        <v>-12.5</v>
+      </c>
+      <c r="K421" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="423" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B423" t="s">
+        <v>349</v>
+      </c>
+      <c r="C423" t="s">
+        <v>350</v>
+      </c>
+      <c r="D423">
+        <v>-100</v>
+      </c>
+      <c r="E423" s="5">
+        <v>75.05</v>
+      </c>
+      <c r="F423" s="5">
+        <v>72.36</v>
+      </c>
+      <c r="G423" s="5">
+        <v>7505</v>
+      </c>
+      <c r="H423" s="5">
+        <v>-1.18</v>
+      </c>
+      <c r="I423" s="5">
+        <v>-7503.82</v>
+      </c>
+      <c r="J423" s="5">
+        <v>0</v>
+      </c>
+      <c r="K423" s="5">
+        <v>269</v>
+      </c>
+      <c r="L423" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="424" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B424" t="s">
+        <v>349</v>
+      </c>
+      <c r="C424" t="s">
+        <v>351</v>
+      </c>
+      <c r="D424">
+        <v>100</v>
+      </c>
+      <c r="E424" s="5">
+        <v>74.05</v>
+      </c>
+      <c r="F424" s="5">
+        <v>72.36</v>
+      </c>
+      <c r="G424" s="5">
+        <v>-7405</v>
+      </c>
+      <c r="H424" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I424" s="5">
+        <v>7503.82</v>
+      </c>
+      <c r="J424" s="5">
+        <v>97.82</v>
+      </c>
+      <c r="K424" s="5">
+        <v>-169</v>
+      </c>
+      <c r="L424" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="425" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B425" t="s">
+        <v>355</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425" t="s">
+        <v>28</v>
+      </c>
+      <c r="E425" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F425" s="5">
+        <v>100</v>
+      </c>
+      <c r="G425" s="5">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="H425" s="5">
+        <v>0</v>
+      </c>
+      <c r="I425" s="5">
+        <v>97.82</v>
+      </c>
+      <c r="J425" s="5">
+        <v>100</v>
+      </c>
+      <c r="K425" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="426" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B426" t="s">
+        <v>61</v>
+      </c>
+      <c r="C426">
+        <v>100</v>
+      </c>
+      <c r="D426">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="E426" s="5">
+        <v>0</v>
+      </c>
+      <c r="F426" s="5">
+        <v>97.82</v>
+      </c>
+      <c r="G426" s="5">
+        <v>100</v>
+      </c>
+      <c r="H426" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="427" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B427" t="s">
+        <v>4</v>
+      </c>
+      <c r="C427" t="s">
+        <v>5</v>
+      </c>
+      <c r="D427" t="s">
+        <v>6</v>
+      </c>
+      <c r="E427" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F427" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G427" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H427" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I427" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J427" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K427" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L427" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="428" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B428" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="429" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B429" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="430" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B430" t="s">
+        <v>316</v>
+      </c>
+      <c r="C430" t="s">
+        <v>353</v>
+      </c>
+      <c r="D430">
+        <v>-2</v>
+      </c>
+      <c r="E430" s="5">
+        <v>2.85</v>
+      </c>
+      <c r="F430" s="5">
+        <v>2.5022000000000002</v>
+      </c>
+      <c r="G430" s="5">
+        <v>570</v>
+      </c>
+      <c r="H430" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I430" s="5">
+        <v>-399.7</v>
+      </c>
+      <c r="J430" s="5">
+        <v>170.59</v>
+      </c>
+      <c r="K430" s="5">
+        <v>69.56</v>
+      </c>
+      <c r="L430" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="431" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B431" t="s">
+        <v>316</v>
+      </c>
+      <c r="C431" t="s">
+        <v>354</v>
+      </c>
+      <c r="D431">
+        <v>3</v>
+      </c>
+      <c r="E431" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F431" s="5">
+        <v>2.5022000000000002</v>
+      </c>
+      <c r="G431" s="5">
+        <v>-765</v>
+      </c>
+      <c r="H431" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="I431" s="5">
+        <v>764.55</v>
+      </c>
+      <c r="J431" s="5">
+        <v>0</v>
+      </c>
+      <c r="K431" s="5">
+        <v>-14.34</v>
+      </c>
+      <c r="L431" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="432" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B432" t="s">
+        <v>318</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432" t="s">
+        <v>28</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F432" s="5">
+        <v>-195</v>
+      </c>
+      <c r="G432" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="H432" s="5">
+        <v>364.85</v>
+      </c>
+      <c r="I432" s="5">
+        <v>170.59</v>
+      </c>
+      <c r="J432" s="5">
+        <v>55.22</v>
+      </c>
+      <c r="K432" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="434" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B434" t="s">
+        <v>356</v>
+      </c>
+      <c r="C434" t="s">
+        <v>357</v>
+      </c>
+      <c r="D434">
+        <v>20</v>
+      </c>
+      <c r="E434" s="5">
+        <v>308.8</v>
+      </c>
+      <c r="F434" s="5">
+        <v>309.13</v>
+      </c>
+      <c r="G434" s="5">
+        <v>-6176</v>
+      </c>
+      <c r="H434" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I434" s="5">
+        <v>6177</v>
+      </c>
+      <c r="J434" s="5">
+        <v>0</v>
+      </c>
+      <c r="K434" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="L434" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="435" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B435" t="s">
+        <v>358</v>
+      </c>
+      <c r="C435">
+        <v>20</v>
+      </c>
+      <c r="D435" t="s">
+        <v>28</v>
+      </c>
+      <c r="E435" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F435" s="5">
+        <v>-6176</v>
+      </c>
+      <c r="G435" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H435" s="5">
+        <v>6177</v>
+      </c>
+      <c r="I435" s="5">
+        <v>0</v>
+      </c>
+      <c r="J435" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="K435" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="436" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B436" t="s">
+        <v>61</v>
+      </c>
+      <c r="C436" s="5">
+        <v>-6176</v>
+      </c>
+      <c r="D436">
+        <v>-1</v>
+      </c>
+      <c r="E436" s="5">
+        <v>6177</v>
+      </c>
+      <c r="F436" s="5">
+        <v>0</v>
+      </c>
+      <c r="G436" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="H436" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="437" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B437" t="s">
+        <v>4</v>
+      </c>
+      <c r="C437" t="s">
+        <v>5</v>
+      </c>
+      <c r="D437" t="s">
+        <v>6</v>
+      </c>
+      <c r="E437" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F437" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G437" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H437" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I437" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J437" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K437" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L437" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="438" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B438" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="439" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B439" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="440" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B440" t="s">
+        <v>359</v>
+      </c>
+      <c r="C440" t="s">
+        <v>360</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440" s="5">
+        <v>21.4</v>
+      </c>
+      <c r="F440" s="5">
+        <v>22.3278</v>
+      </c>
+      <c r="G440" s="5">
+        <v>-2140</v>
+      </c>
+      <c r="H440" s="5">
+        <v>-1.05</v>
+      </c>
+      <c r="I440" s="5">
+        <v>2141.0500000000002</v>
+      </c>
+      <c r="J440" s="5">
+        <v>0</v>
+      </c>
+      <c r="K440" s="5">
+        <v>92.78</v>
+      </c>
+      <c r="L440" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="441" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B441" t="s">
+        <v>361</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441" t="s">
+        <v>28</v>
+      </c>
+      <c r="E441" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F441" s="5">
+        <v>-2140</v>
+      </c>
+      <c r="G441" s="5">
+        <v>-1.05</v>
+      </c>
+      <c r="H441" s="5">
+        <v>2141.0500000000002</v>
+      </c>
+      <c r="I441" s="5">
+        <v>0</v>
+      </c>
+      <c r="J441" s="5">
+        <v>92.78</v>
+      </c>
+      <c r="K441" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="443" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B443" t="s">
+        <v>356</v>
+      </c>
+      <c r="C443" t="s">
+        <v>362</v>
+      </c>
+      <c r="D443">
+        <v>20</v>
+      </c>
+      <c r="E443" s="5">
+        <v>293.86500000000001</v>
+      </c>
+      <c r="F443" s="5">
+        <v>299.5</v>
+      </c>
+      <c r="G443" s="5">
+        <v>-5877.3</v>
+      </c>
+      <c r="H443" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I443" s="5">
+        <v>5878.3</v>
+      </c>
+      <c r="J443" s="5">
+        <v>0</v>
+      </c>
+      <c r="K443" s="5">
+        <v>112.7</v>
+      </c>
+      <c r="L443" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="444" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B444" t="s">
+        <v>358</v>
+      </c>
+      <c r="C444">
+        <v>20</v>
+      </c>
+      <c r="D444" t="s">
+        <v>28</v>
+      </c>
+      <c r="E444" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F444" s="5">
+        <v>-5877.3</v>
+      </c>
+      <c r="G444" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H444" s="5">
+        <v>5878.3</v>
+      </c>
+      <c r="I444" s="5">
+        <v>0</v>
+      </c>
+      <c r="J444" s="5">
+        <v>112.7</v>
+      </c>
+      <c r="K444" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="445" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B445" t="s">
+        <v>260</v>
+      </c>
+      <c r="C445" t="s">
+        <v>363</v>
+      </c>
+      <c r="D445">
+        <v>15</v>
+      </c>
+      <c r="E445" s="5">
+        <v>199.31</v>
+      </c>
+      <c r="F445" s="5">
+        <v>199.71</v>
+      </c>
+      <c r="G445" s="5">
+        <v>-2989.65</v>
+      </c>
+      <c r="H445" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I445" s="5">
+        <v>3104.08</v>
+      </c>
+      <c r="J445" s="5">
+        <v>113.43</v>
+      </c>
+      <c r="K445" s="5">
+        <v>6</v>
+      </c>
+      <c r="L445" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="446" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B446" t="s">
+        <v>262</v>
+      </c>
+      <c r="C446">
+        <v>15</v>
+      </c>
+      <c r="D446" t="s">
+        <v>28</v>
+      </c>
+      <c r="E446" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F446" s="5">
+        <v>-2989.65</v>
+      </c>
+      <c r="G446" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H446" s="5">
+        <v>3104.08</v>
+      </c>
+      <c r="I446" s="5">
+        <v>113.43</v>
+      </c>
+      <c r="J446" s="5">
+        <v>6</v>
+      </c>
+      <c r="K446" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="447" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B447" t="s">
+        <v>364</v>
+      </c>
+      <c r="C447" t="s">
+        <v>365</v>
+      </c>
+      <c r="D447">
+        <v>300</v>
+      </c>
+      <c r="E447" s="5">
+        <v>30</v>
+      </c>
+      <c r="F447" s="5">
+        <v>30.83</v>
+      </c>
+      <c r="G447" s="5">
+        <v>-9000</v>
+      </c>
+      <c r="H447" s="5">
+        <v>0</v>
+      </c>
+      <c r="I447" s="5">
+        <v>9000</v>
+      </c>
+      <c r="J447" s="5">
+        <v>0</v>
+      </c>
+      <c r="K447" s="5">
+        <v>249</v>
+      </c>
+      <c r="L447" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="448" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B448" t="s">
+        <v>367</v>
+      </c>
+      <c r="C448">
+        <v>300</v>
+      </c>
+      <c r="D448" t="s">
+        <v>28</v>
+      </c>
+      <c r="E448" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F448" s="5">
+        <v>-9000</v>
+      </c>
+      <c r="G448" s="5">
+        <v>0</v>
+      </c>
+      <c r="H448" s="5">
+        <v>9000</v>
+      </c>
+      <c r="I448" s="5">
+        <v>0</v>
+      </c>
+      <c r="J448" s="5">
+        <v>249</v>
+      </c>
+      <c r="K448" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="449" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B449" t="s">
+        <v>49</v>
+      </c>
+      <c r="C449" t="s">
+        <v>368</v>
+      </c>
+      <c r="D449">
+        <v>100</v>
+      </c>
+      <c r="E449" s="5">
+        <v>11.85</v>
+      </c>
+      <c r="F449" s="5">
+        <v>11.82</v>
+      </c>
+      <c r="G449" s="5">
+        <v>-1185</v>
+      </c>
+      <c r="H449" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I449" s="5">
+        <v>-2294.23</v>
+      </c>
+      <c r="J449" s="5">
+        <v>-3480.23</v>
+      </c>
+      <c r="K449" s="5">
+        <v>-3</v>
+      </c>
+      <c r="L449" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="450" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B450" t="s">
+        <v>51</v>
+      </c>
+      <c r="C450">
+        <v>100</v>
+      </c>
+      <c r="D450" t="s">
+        <v>28</v>
+      </c>
+      <c r="E450" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F450" s="5">
+        <v>-1185</v>
+      </c>
+      <c r="G450" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H450" s="5">
+        <v>-2294.23</v>
+      </c>
+      <c r="I450" s="5">
+        <v>-3480.23</v>
+      </c>
+      <c r="J450" s="5">
+        <v>-3</v>
+      </c>
+      <c r="K450" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="451" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B451" t="s">
+        <v>61</v>
+      </c>
+      <c r="C451" s="5">
+        <v>-19051.95</v>
+      </c>
+      <c r="D451">
+        <v>-3</v>
+      </c>
+      <c r="E451" s="5">
+        <v>15688.15</v>
+      </c>
+      <c r="F451" s="5">
+        <v>-3366.8</v>
+      </c>
+      <c r="G451" s="5">
+        <v>364.7</v>
+      </c>
+      <c r="H451" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="452" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B452" t="s">
+        <v>4</v>
+      </c>
+      <c r="C452" t="s">
+        <v>5</v>
+      </c>
+      <c r="D452" t="s">
+        <v>6</v>
+      </c>
+      <c r="E452" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F452" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G452" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H452" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I452" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J452" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K452" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L452" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="453" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B453" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="454" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B454" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="455" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B455" t="s">
+        <v>359</v>
+      </c>
+      <c r="C455" t="s">
+        <v>369</v>
+      </c>
+      <c r="D455">
+        <v>1</v>
+      </c>
+      <c r="E455" s="5">
+        <v>12.8</v>
+      </c>
+      <c r="F455" s="5">
+        <v>15.176500000000001</v>
+      </c>
+      <c r="G455" s="5">
+        <v>-1280</v>
+      </c>
+      <c r="H455" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="I455" s="5">
+        <v>1280.8</v>
+      </c>
+      <c r="J455" s="5">
+        <v>0</v>
+      </c>
+      <c r="K455" s="5">
+        <v>237.65</v>
+      </c>
+      <c r="L455" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="456" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B456" t="s">
+        <v>361</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456" t="s">
+        <v>28</v>
+      </c>
+      <c r="E456" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F456" s="5">
+        <v>-1280</v>
+      </c>
+      <c r="G456" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="H456" s="5">
+        <v>1280.8</v>
+      </c>
+      <c r="I456" s="5">
+        <v>0</v>
+      </c>
+      <c r="J456" s="5">
+        <v>237.65</v>
+      </c>
+      <c r="K456" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="457" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B457" t="s">
+        <v>316</v>
+      </c>
+      <c r="C457" t="s">
+        <v>365</v>
+      </c>
+      <c r="D457">
+        <v>-3</v>
+      </c>
+      <c r="E457" s="5">
+        <v>0</v>
+      </c>
+      <c r="F457" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="G457" s="5">
+        <v>0</v>
+      </c>
+      <c r="H457" s="5">
+        <v>0</v>
+      </c>
+      <c r="I457" s="5">
+        <v>-764.55</v>
+      </c>
+      <c r="J457" s="5">
+        <v>0</v>
+      </c>
+      <c r="K457" s="5">
+        <v>-249</v>
+      </c>
+      <c r="L457" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="458" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B458" t="s">
+        <v>318</v>
+      </c>
+      <c r="C458">
+        <v>-3</v>
+      </c>
+      <c r="D458" t="s">
+        <v>28</v>
+      </c>
+      <c r="E458" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F458" s="5">
+        <v>0</v>
+      </c>
+      <c r="G458" s="5">
+        <v>0</v>
+      </c>
+      <c r="H458" s="5">
+        <v>-764.55</v>
+      </c>
+      <c r="I458" s="5">
+        <v>0</v>
+      </c>
+      <c r="J458" s="5">
+        <v>-249</v>
+      </c>
+      <c r="K458" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="459" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B459" t="s">
+        <v>319</v>
+      </c>
+      <c r="C459" t="s">
+        <v>365</v>
+      </c>
+      <c r="D459">
+        <v>-1</v>
+      </c>
+      <c r="E459" s="5">
+        <v>0</v>
+      </c>
+      <c r="F459" s="5">
+        <v>0</v>
+      </c>
+      <c r="G459" s="5">
+        <v>0</v>
+      </c>
+      <c r="H459" s="5">
+        <v>0</v>
+      </c>
+      <c r="I459" s="5">
+        <v>-110.05</v>
+      </c>
+      <c r="J459" s="5">
+        <v>-110.05</v>
+      </c>
+      <c r="K459" s="5">
+        <v>0</v>
+      </c>
+      <c r="L459" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="460" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B460" t="s">
+        <v>321</v>
+      </c>
+      <c r="C460">
+        <v>-1</v>
+      </c>
+      <c r="D460" t="s">
+        <v>28</v>
+      </c>
+      <c r="E460" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F460" s="5">
+        <v>0</v>
+      </c>
+      <c r="G460" s="5">
+        <v>0</v>
+      </c>
+      <c r="H460" s="5">
+        <v>-110.05</v>
+      </c>
+      <c r="I460" s="5">
+        <v>-110.05</v>
+      </c>
+      <c r="J460" s="5">
+        <v>0</v>
+      </c>
+      <c r="K460" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="461" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B461" t="s">
+        <v>322</v>
+      </c>
+      <c r="C461" t="s">
+        <v>365</v>
+      </c>
+      <c r="D461">
+        <v>5</v>
+      </c>
+      <c r="E461" s="5">
+        <v>0</v>
+      </c>
+      <c r="F461" s="5">
+        <v>0</v>
+      </c>
+      <c r="G461" s="5">
+        <v>0</v>
+      </c>
+      <c r="H461" s="5">
+        <v>0</v>
+      </c>
+      <c r="I461" s="5">
+        <v>42.24</v>
+      </c>
+      <c r="J461" s="5">
+        <v>42.24</v>
+      </c>
+      <c r="K461" s="5">
+        <v>0</v>
+      </c>
+      <c r="L461" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="462" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B462" t="s">
+        <v>324</v>
+      </c>
+      <c r="C462">
+        <v>5</v>
+      </c>
+      <c r="D462" t="s">
+        <v>28</v>
+      </c>
+      <c r="E462" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F462" s="5">
+        <v>0</v>
+      </c>
+      <c r="G462" s="5">
+        <v>0</v>
+      </c>
+      <c r="H462" s="5">
+        <v>42.24</v>
+      </c>
+      <c r="I462" s="5">
+        <v>42.24</v>
+      </c>
+      <c r="J462" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Trading Account.xlsx
+++ b/Trading Account.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1465166C-8EF2-4ECE-9907-2B50A41EBB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9737D97-4748-4B0B-93EE-8E12BFCF7249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21750" yWindow="720" windowWidth="28950" windowHeight="19590" xr2:uid="{5AC812C1-C6FA-4E05-932F-D1EBD613AE9A}"/>
+    <workbookView xWindow="6000" yWindow="1170" windowWidth="22515" windowHeight="19365" xr2:uid="{5AC812C1-C6FA-4E05-932F-D1EBD613AE9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2660,13 +2660,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAE940E-6F97-4759-B7C4-CA0B0F24A13F}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3815,7 +3815,7 @@
         <v>-278.2899999999936</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" ref="E49" si="35">C49-$C$4</f>
+        <f t="shared" ref="E49:E50" si="35">C49-$C$4</f>
         <v>4311.5900000000038</v>
       </c>
       <c r="F49" s="3">
@@ -3823,8 +3823,282 @@
         <v>-5.0735610750719529E-3</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" ref="G49" si="37">C49/$C$4-1</f>
+        <f t="shared" ref="G49:G50" si="37">C49/$C$4-1</f>
         <v>8.5783768533702176E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <f>+B49+3</f>
+        <v>44823</v>
+      </c>
+      <c r="C50" s="4">
+        <v>53655.85</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" ref="D50" si="38">C50-C49</f>
+        <v>-916.88000000000466</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" ref="E50:E51" si="39">C50-$C$4</f>
+        <v>3394.7099999999991</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" ref="F50" si="40">+C50/C49-1</f>
+        <v>-1.6801065293966522E-2</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" ref="G50:G51" si="41">C50/$C$4-1</f>
+        <v>6.7541444543438578E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <f>+B50+1</f>
+        <v>44824</v>
+      </c>
+      <c r="C51" s="4">
+        <v>52712.1</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" ref="D51:D54" si="42">C51-C50</f>
+        <v>-943.75</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" ref="E51:E55" si="43">C51-$C$4</f>
+        <v>2450.9599999999991</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" ref="F51:F54" si="44">+C51/C50-1</f>
+        <v>-1.7588948828506146E-2</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" ref="G51:G55" si="45">C51/$C$4-1</f>
+        <v>4.8764512703054486E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <f>+B51+1</f>
+        <v>44825</v>
+      </c>
+      <c r="C52" s="4">
+        <v>51209</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="42"/>
+        <v>-1503.0999999999985</v>
+      </c>
+      <c r="E52" s="8">
+        <f t="shared" si="43"/>
+        <v>947.86000000000058</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="44"/>
+        <v>-2.8515274481570652E-2</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="45"/>
+        <v>1.8858704756796296E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <f>+B52+1</f>
+        <v>44826</v>
+      </c>
+      <c r="C53" s="4">
+        <v>51204.23</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="42"/>
+        <v>-4.7699999999967986</v>
+      </c>
+      <c r="E53" s="8">
+        <f t="shared" si="43"/>
+        <v>943.09000000000378</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="44"/>
+        <v>-9.3147688882799784E-5</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="45"/>
+        <v>1.8763800423150068E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <f>+B53+1</f>
+        <v>44827</v>
+      </c>
+      <c r="C54" s="4">
+        <v>51114.74</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="42"/>
+        <v>-89.490000000005239</v>
+      </c>
+      <c r="E54" s="8">
+        <f t="shared" si="43"/>
+        <v>853.59999999999854</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="44"/>
+        <v>-1.7477071718490222E-3</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="45"/>
+        <v>1.6983299622730375E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <f>+B54+3</f>
+        <v>44830</v>
+      </c>
+      <c r="C55" s="4">
+        <v>50529.32</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" ref="D55:D57" si="46">C55-C54</f>
+        <v>-585.41999999999825</v>
+      </c>
+      <c r="E55" s="8">
+        <f t="shared" ref="E55:E57" si="47">C55-$C$4</f>
+        <v>268.18000000000029</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" ref="F55:F57" si="48">+C55/C54-1</f>
+        <v>-1.1453056398213035E-2</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" ref="G55:G57" si="49">C55/$C$4-1</f>
+        <v>5.3357325361103047E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <f>+B55+1</f>
+        <v>44831</v>
+      </c>
+      <c r="C56" s="4">
+        <v>50796.47</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="46"/>
+        <v>267.15000000000146</v>
+      </c>
+      <c r="E56" s="8">
+        <f t="shared" si="47"/>
+        <v>535.33000000000175</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="48"/>
+        <v>5.2870293920441735E-3</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="49"/>
+        <v>1.0650972102901113E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <f>+B56+1</f>
+        <v>44832</v>
+      </c>
+      <c r="C57" s="4">
+        <v>51870.12</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="46"/>
+        <v>1073.6500000000015</v>
+      </c>
+      <c r="E57" s="8">
+        <f t="shared" si="47"/>
+        <v>1608.9800000000032</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="48"/>
+        <v>2.1136311243675099E-2</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="49"/>
+        <v>3.2012405607990679E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <f>+B57+1</f>
+        <v>44833</v>
+      </c>
+      <c r="C58" s="4">
+        <v>48455.19</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" ref="D58:D60" si="50">C58-C57</f>
+        <v>-3414.9300000000003</v>
+      </c>
+      <c r="E58" s="8">
+        <f t="shared" ref="E58:E60" si="51">C58-$C$4</f>
+        <v>-1805.9499999999971</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" ref="F58:F60" si="52">+C58/C57-1</f>
+        <v>-6.5836169262766364E-2</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" ref="G58:G60" si="53">C58/$C$4-1</f>
+        <v>-3.5931337808891683E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <f>+B58+1</f>
+        <v>44834</v>
+      </c>
+      <c r="C59" s="4">
+        <v>48664.21</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="50"/>
+        <v>209.0199999999968</v>
+      </c>
+      <c r="E59" s="8">
+        <f t="shared" si="51"/>
+        <v>-1596.9300000000003</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="52"/>
+        <v>4.3136762026936282E-3</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="53"/>
+        <v>-3.1772657763035173E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>44837</v>
+      </c>
+      <c r="C60" s="4">
+        <v>48612.21</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="50"/>
+        <v>-52</v>
+      </c>
+      <c r="E60" s="8">
+        <f t="shared" si="51"/>
+        <v>-1648.9300000000003</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="52"/>
+        <v>-1.0685470903565308E-3</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="53"/>
+        <v>-3.2807254272386177E-2</v>
       </c>
     </row>
   </sheetData>
